--- a/smy2kkl2/smy2kkl2 - Copy/AppData/smy_data_design.xlsx
+++ b/smy2kkl2/smy2kkl2 - Copy/AppData/smy_data_design.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tauex-my.sharepoint.com/personal/yoskoyoav_tauex_tau_ac_il/Documents/Utilities/tools_190325/smy2kkl2/smy2kkl2 - Copy/AppData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\galisraeli\Documents\GitHub\Deshe\smy2kkl2\smy2kkl2 - Copy\AppData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="120" documentId="11_729BA9E3D69EBF073C66EA3BC5C118CE23B4C986" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EEA1BBED-BF85-4753-9E7E-34F67878271A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE97B3E-AF8A-4F6C-90F1-11A0A1905F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="828" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2896,7 +2896,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3110,6 +3110,13 @@
       <family val="2"/>
       <charset val="177"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -3149,7 +3156,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3417,6 +3424,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10730,8 +10740,8 @@
   <dimension ref="A1:G521"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A501" sqref="A501"/>
+      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D122" sqref="D122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19945,8 +19955,8 @@
   <dimension ref="A1:G413"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A364" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D380" sqref="D380"/>
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20764,7 +20774,7 @@
         <v>3935</v>
       </c>
       <c r="D45" s="54" t="s">
-        <v>323</v>
+        <v>816</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>246</v>
@@ -21086,8 +21096,8 @@
       <c r="C64" s="47">
         <v>3935</v>
       </c>
-      <c r="D64" s="54" t="s">
-        <v>338</v>
+      <c r="D64" s="105" t="s">
+        <v>816</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>246</v>
@@ -22235,7 +22245,7 @@
         <v>3935</v>
       </c>
       <c r="D131" s="54" t="s">
-        <v>323</v>
+        <v>816</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>247</v>
@@ -24740,7 +24750,7 @@
         <v>3935</v>
       </c>
       <c r="D278" s="50" t="s">
-        <v>338</v>
+        <v>816</v>
       </c>
       <c r="E278" s="1" t="s">
         <v>246</v>
@@ -26890,8 +26900,8 @@
       <c r="C407" s="47">
         <v>3935</v>
       </c>
-      <c r="D407" s="54" t="s">
-        <v>338</v>
+      <c r="D407" s="105" t="s">
+        <v>816</v>
       </c>
       <c r="E407" s="1" t="s">
         <v>246</v>
@@ -26904,8 +26914,8 @@
       <c r="C408" s="47">
         <v>3935</v>
       </c>
-      <c r="D408" s="54" t="s">
-        <v>323</v>
+      <c r="D408" s="105" t="s">
+        <v>816</v>
       </c>
       <c r="E408" s="1" t="s">
         <v>246</v>
@@ -26997,7 +27007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D398"/>
   <sheetViews>
-    <sheetView topLeftCell="A304" workbookViewId="0">
+    <sheetView topLeftCell="A396" workbookViewId="0">
       <selection activeCell="F93" sqref="F93"/>
     </sheetView>
   </sheetViews>

--- a/smy2kkl2/smy2kkl2 - Copy/AppData/smy_data_design.xlsx
+++ b/smy2kkl2/smy2kkl2 - Copy/AppData/smy_data_design.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\galisraeli\Documents\GitHub\Deshe\smy2kkl2\smy2kkl2 - Copy\AppData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tauex-my.sharepoint.com/personal/yoskoyoav_tauex_tau_ac_il/Documents/Utilities/tools_190325/smy2kkl2/smy2kkl2 - Copy/AppData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE97B3E-AF8A-4F6C-90F1-11A0A1905F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="120" documentId="11_729BA9E3D69EBF073C66EA3BC5C118CE23B4C986" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EEA1BBED-BF85-4753-9E7E-34F67878271A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="828" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2896,7 +2896,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3110,13 +3110,6 @@
       <family val="2"/>
       <charset val="177"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -3156,7 +3149,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3424,9 +3417,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10740,8 +10730,8 @@
   <dimension ref="A1:G521"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D122" sqref="D122"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A501" sqref="A501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19955,8 +19945,8 @@
   <dimension ref="A1:G413"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D64" sqref="D64"/>
+      <pane ySplit="1" topLeftCell="A364" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D380" sqref="D380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20774,7 +20764,7 @@
         <v>3935</v>
       </c>
       <c r="D45" s="54" t="s">
-        <v>816</v>
+        <v>323</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>246</v>
@@ -21096,8 +21086,8 @@
       <c r="C64" s="47">
         <v>3935</v>
       </c>
-      <c r="D64" s="105" t="s">
-        <v>816</v>
+      <c r="D64" s="54" t="s">
+        <v>338</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>246</v>
@@ -22245,7 +22235,7 @@
         <v>3935</v>
       </c>
       <c r="D131" s="54" t="s">
-        <v>816</v>
+        <v>323</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>247</v>
@@ -24750,7 +24740,7 @@
         <v>3935</v>
       </c>
       <c r="D278" s="50" t="s">
-        <v>816</v>
+        <v>338</v>
       </c>
       <c r="E278" s="1" t="s">
         <v>246</v>
@@ -26900,8 +26890,8 @@
       <c r="C407" s="47">
         <v>3935</v>
       </c>
-      <c r="D407" s="105" t="s">
-        <v>816</v>
+      <c r="D407" s="54" t="s">
+        <v>338</v>
       </c>
       <c r="E407" s="1" t="s">
         <v>246</v>
@@ -26914,8 +26904,8 @@
       <c r="C408" s="47">
         <v>3935</v>
       </c>
-      <c r="D408" s="105" t="s">
-        <v>816</v>
+      <c r="D408" s="54" t="s">
+        <v>323</v>
       </c>
       <c r="E408" s="1" t="s">
         <v>246</v>
@@ -27007,7 +26997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D398"/>
   <sheetViews>
-    <sheetView topLeftCell="A396" workbookViewId="0">
+    <sheetView topLeftCell="A304" workbookViewId="0">
       <selection activeCell="F93" sqref="F93"/>
     </sheetView>
   </sheetViews>

--- a/smy2kkl2/smy2kkl2 - Copy/AppData/smy_data_design.xlsx
+++ b/smy2kkl2/smy2kkl2 - Copy/AppData/smy_data_design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\galisraeli\Documents\GitHub\Deshe\smy2kkl2\smy2kkl2 - Copy\AppData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9313AE95-3A2F-4F84-88A9-56F9AD44E384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E30CA4-4A05-4BC0-B0CB-59BB9D8214EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="828" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">in_domain_data!$A$1:$F$502</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">out_domain_data!$A$1:$F$191</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">out_domain_data!$A$1:$F$192</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Samples!$A$1:$L$84</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'SDE Domains'!$A$1:$D$397</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Stands!$A$1:$O$88</definedName>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5865" uniqueCount="938">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5868" uniqueCount="938">
   <si>
     <t>Field Name</t>
   </si>
@@ -10730,8 +10730,8 @@
   <dimension ref="A1:G521"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A501" sqref="A501"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19942,11 +19942,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G413"/>
+  <dimension ref="A1:G414"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A353" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H384" sqref="H384"/>
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F445" sqref="F445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20761,7 +20761,7 @@
         <v>99</v>
       </c>
       <c r="C45" s="47">
-        <v>3935</v>
+        <v>3936</v>
       </c>
       <c r="D45" s="54" t="s">
         <v>323</v>
@@ -21077,17 +21077,15 @@
       </c>
     </row>
     <row r="64" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="54">
-        <v>355</v>
-      </c>
+      <c r="A64" s="54"/>
       <c r="B64" s="67" t="s">
         <v>224</v>
       </c>
       <c r="C64" s="47">
-        <v>3935</v>
+        <v>3936</v>
       </c>
       <c r="D64" s="54" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>246</v>
@@ -21095,16 +21093,16 @@
     </row>
     <row r="65" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="54">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B65" s="67" t="s">
         <v>224</v>
       </c>
       <c r="C65" s="47">
-        <v>1900</v>
+        <v>3935</v>
       </c>
       <c r="D65" s="54" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>246</v>
@@ -21112,16 +21110,16 @@
     </row>
     <row r="66" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="54">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B66" s="67" t="s">
         <v>224</v>
       </c>
-      <c r="C66" s="48">
-        <v>1901</v>
+      <c r="C66" s="47">
+        <v>1900</v>
       </c>
       <c r="D66" s="54" t="s">
-        <v>324</v>
+        <v>347</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>246</v>
@@ -21129,16 +21127,16 @@
     </row>
     <row r="67" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="54">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B67" s="67" t="s">
         <v>224</v>
       </c>
-      <c r="C67" s="47">
-        <v>1991</v>
+      <c r="C67" s="48">
+        <v>1901</v>
       </c>
       <c r="D67" s="54" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>246</v>
@@ -21146,16 +21144,16 @@
     </row>
     <row r="68" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="54">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B68" s="67" t="s">
         <v>224</v>
       </c>
-      <c r="C68" s="48">
-        <v>1910</v>
+      <c r="C68" s="47">
+        <v>1991</v>
       </c>
       <c r="D68" s="54" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>246</v>
@@ -21163,16 +21161,16 @@
     </row>
     <row r="69" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="54">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B69" s="67" t="s">
         <v>224</v>
       </c>
       <c r="C69" s="48">
-        <v>1902</v>
+        <v>1910</v>
       </c>
       <c r="D69" s="54" t="s">
-        <v>326</v>
+        <v>349</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>246</v>
@@ -21180,16 +21178,16 @@
     </row>
     <row r="70" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="54">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B70" s="67" t="s">
         <v>224</v>
       </c>
-      <c r="C70" s="47">
-        <v>2000</v>
+      <c r="C70" s="48">
+        <v>1902</v>
       </c>
       <c r="D70" s="54" t="s">
-        <v>719</v>
+        <v>326</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>246</v>
@@ -21197,16 +21195,16 @@
     </row>
     <row r="71" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="54">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B71" s="67" t="s">
         <v>224</v>
       </c>
-      <c r="C71" s="48">
-        <v>1903</v>
+      <c r="C71" s="47">
+        <v>2000</v>
       </c>
       <c r="D71" s="54" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>246</v>
@@ -21214,16 +21212,16 @@
     </row>
     <row r="72" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="54">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B72" s="67" t="s">
         <v>224</v>
       </c>
-      <c r="C72" s="47">
-        <v>2200</v>
+      <c r="C72" s="48">
+        <v>1903</v>
       </c>
       <c r="D72" s="54" t="s">
-        <v>351</v>
+        <v>718</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>246</v>
@@ -21231,16 +21229,16 @@
     </row>
     <row r="73" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="54">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B73" s="67" t="s">
         <v>224</v>
       </c>
       <c r="C73" s="47">
-        <v>2250</v>
+        <v>2200</v>
       </c>
       <c r="D73" s="54" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>246</v>
@@ -21248,16 +21246,16 @@
     </row>
     <row r="74" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="54">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B74" s="67" t="s">
         <v>224</v>
       </c>
       <c r="C74" s="47">
-        <v>9990</v>
+        <v>2250</v>
       </c>
       <c r="D74" s="54" t="s">
-        <v>871</v>
+        <v>352</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>246</v>
@@ -21265,16 +21263,16 @@
     </row>
     <row r="75" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="54">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B75" s="67" t="s">
         <v>224</v>
       </c>
       <c r="C75" s="47">
-        <v>3980</v>
+        <v>9990</v>
       </c>
       <c r="D75" s="54" t="s">
-        <v>320</v>
+        <v>871</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>246</v>
@@ -21282,16 +21280,16 @@
     </row>
     <row r="76" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="54">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B76" s="67" t="s">
         <v>224</v>
       </c>
       <c r="C76" s="47">
-        <v>3960</v>
+        <v>3980</v>
       </c>
       <c r="D76" s="54" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>246</v>
@@ -21299,16 +21297,16 @@
     </row>
     <row r="77" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="54">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B77" s="67" t="s">
         <v>224</v>
       </c>
       <c r="C77" s="47">
-        <v>9999</v>
-      </c>
-      <c r="D77" s="50" t="s">
-        <v>871</v>
+        <v>3960</v>
+      </c>
+      <c r="D77" s="54" t="s">
+        <v>322</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>246</v>
@@ -21316,51 +21314,50 @@
     </row>
     <row r="78" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="54">
-        <v>390</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>231</v>
+        <v>369</v>
+      </c>
+      <c r="B78" s="67" t="s">
+        <v>224</v>
       </c>
       <c r="C78" s="47">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="D78" s="50" t="s">
-        <v>270</v>
+        <v>871</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="79" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="54">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>231</v>
       </c>
       <c r="C79" s="47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D79" s="50" t="s">
-        <v>730</v>
+        <v>270</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="F79" s="65"/>
     </row>
     <row r="80" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="54">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>231</v>
       </c>
       <c r="C80" s="47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D80" s="50" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>247</v>
@@ -21369,16 +21366,16 @@
     </row>
     <row r="81" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="54">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>231</v>
       </c>
       <c r="C81" s="47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" s="50" t="s">
-        <v>725</v>
+        <v>733</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>247</v>
@@ -21387,16 +21384,16 @@
     </row>
     <row r="82" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="54">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>231</v>
       </c>
       <c r="C82" s="47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" s="50" t="s">
-        <v>355</v>
+        <v>725</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>247</v>
@@ -21405,16 +21402,16 @@
     </row>
     <row r="83" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="54">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C83" s="47">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D83" s="50" t="s">
-        <v>270</v>
+        <v>355</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>247</v>
@@ -21423,16 +21420,16 @@
     </row>
     <row r="84" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="54">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>230</v>
       </c>
       <c r="C84" s="47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D84" s="50" t="s">
-        <v>724</v>
+        <v>270</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>247</v>
@@ -21441,16 +21438,16 @@
     </row>
     <row r="85" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="54">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>230</v>
       </c>
       <c r="C85" s="47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D85" s="50" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>247</v>
@@ -21459,16 +21456,16 @@
     </row>
     <row r="86" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="54">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>230</v>
       </c>
       <c r="C86" s="47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" s="50" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>247</v>
@@ -21477,16 +21474,16 @@
     </row>
     <row r="87" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="54">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>230</v>
       </c>
       <c r="C87" s="47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" s="50" t="s">
-        <v>358</v>
+        <v>735</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>247</v>
@@ -21495,33 +21492,34 @@
     </row>
     <row r="88" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="54">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C88" s="47">
-        <v>0</v>
-      </c>
-      <c r="D88" s="54" t="s">
-        <v>270</v>
+        <v>4</v>
+      </c>
+      <c r="D88" s="50" t="s">
+        <v>358</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>247</v>
       </c>
+      <c r="F88" s="65"/>
     </row>
     <row r="89" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="54">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>229</v>
       </c>
       <c r="C89" s="47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D89" s="54" t="s">
-        <v>731</v>
+        <v>270</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>247</v>
@@ -21529,16 +21527,16 @@
     </row>
     <row r="90" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="54">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>229</v>
       </c>
       <c r="C90" s="47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D90" s="54" t="s">
-        <v>360</v>
+        <v>731</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>247</v>
@@ -21546,16 +21544,16 @@
     </row>
     <row r="91" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="54">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>229</v>
       </c>
       <c r="C91" s="47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" s="54" t="s">
-        <v>732</v>
+        <v>360</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>247</v>
@@ -21563,16 +21561,16 @@
     </row>
     <row r="92" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="54">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="C92" s="47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D92" s="54" t="s">
-        <v>217</v>
+        <v>732</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>247</v>
@@ -21580,16 +21578,16 @@
     </row>
     <row r="93" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="54">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>222</v>
       </c>
       <c r="C93" s="47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D93" s="54" t="s">
-        <v>362</v>
+        <v>217</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>247</v>
@@ -21597,16 +21595,16 @@
     </row>
     <row r="94" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="54">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>222</v>
       </c>
       <c r="C94" s="47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D94" s="54" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>247</v>
@@ -21614,16 +21612,16 @@
     </row>
     <row r="95" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="54">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>222</v>
       </c>
       <c r="C95" s="47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" s="54" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>247</v>
@@ -21631,16 +21629,16 @@
     </row>
     <row r="96" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="54">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>222</v>
       </c>
       <c r="C96" s="47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" s="54" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>247</v>
@@ -21648,16 +21646,16 @@
     </row>
     <row r="97" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="54">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>222</v>
       </c>
       <c r="C97" s="47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" s="54" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>247</v>
@@ -21665,16 +21663,16 @@
     </row>
     <row r="98" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="54">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>222</v>
       </c>
       <c r="C98" s="47">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D98" s="54" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>247</v>
@@ -21682,16 +21680,16 @@
     </row>
     <row r="99" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="54">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>222</v>
       </c>
       <c r="C99" s="47">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D99" s="54" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>247</v>
@@ -21699,16 +21697,16 @@
     </row>
     <row r="100" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="54">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>222</v>
       </c>
       <c r="C100" s="47">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D100" s="54" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>247</v>
@@ -21716,16 +21714,16 @@
     </row>
     <row r="101" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="54">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>222</v>
       </c>
       <c r="C101" s="47">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D101" s="54" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>247</v>
@@ -21733,16 +21731,16 @@
     </row>
     <row r="102" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="54">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>222</v>
       </c>
       <c r="C102" s="47">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D102" s="54" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>247</v>
@@ -21750,16 +21748,16 @@
     </row>
     <row r="103" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="54">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>222</v>
       </c>
       <c r="C103" s="47">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D103" s="54" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>247</v>
@@ -21767,16 +21765,16 @@
     </row>
     <row r="104" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="54">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>222</v>
       </c>
       <c r="C104" s="47">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D104" s="54" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>247</v>
@@ -21784,16 +21782,16 @@
     </row>
     <row r="105" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="54">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>222</v>
       </c>
       <c r="C105" s="47">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D105" s="54" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>247</v>
@@ -21801,16 +21799,16 @@
     </row>
     <row r="106" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="54">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>222</v>
       </c>
       <c r="C106" s="47">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D106" s="54" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>247</v>
@@ -21818,16 +21816,16 @@
     </row>
     <row r="107" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="54">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>222</v>
       </c>
       <c r="C107" s="47">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="D107" s="54" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>247</v>
@@ -21835,16 +21833,16 @@
     </row>
     <row r="108" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="54">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>222</v>
       </c>
       <c r="C108" s="47">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="D108" s="54" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>247</v>
@@ -21852,16 +21850,16 @@
     </row>
     <row r="109" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="54">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C109" s="47">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="D109" s="54" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>247</v>
@@ -21869,16 +21867,16 @@
     </row>
     <row r="110" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="54">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>225</v>
       </c>
       <c r="C110" s="47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D110" s="54" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>247</v>
@@ -21886,16 +21884,16 @@
     </row>
     <row r="111" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="54">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>225</v>
       </c>
       <c r="C111" s="47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D111" s="54" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>247</v>
@@ -21903,16 +21901,16 @@
     </row>
     <row r="112" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="54">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>225</v>
       </c>
       <c r="C112" s="47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D112" s="54" t="s">
-        <v>664</v>
+        <v>390</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>247</v>
@@ -21920,16 +21918,16 @@
     </row>
     <row r="113" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="54">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C113" s="47">
         <v>0</v>
       </c>
       <c r="D113" s="54" t="s">
-        <v>270</v>
+        <v>664</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>247</v>
@@ -21937,16 +21935,16 @@
     </row>
     <row r="114" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="54">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>227</v>
       </c>
       <c r="C114" s="47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D114" s="54" t="s">
-        <v>736</v>
+        <v>270</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>247</v>
@@ -21954,16 +21952,16 @@
     </row>
     <row r="115" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="54">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>227</v>
       </c>
       <c r="C115" s="47">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D115" s="54" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>247</v>
@@ -21971,16 +21969,16 @@
     </row>
     <row r="116" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="54">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>227</v>
       </c>
       <c r="C116" s="47">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D116" s="54" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>247</v>
@@ -21988,16 +21986,16 @@
     </row>
     <row r="117" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="54">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>227</v>
       </c>
       <c r="C117" s="47">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="D117" s="54" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>247</v>
@@ -22005,16 +22003,16 @@
     </row>
     <row r="118" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="54">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>227</v>
       </c>
       <c r="C118" s="47">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="D118" s="54" t="s">
-        <v>397</v>
+        <v>739</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>247</v>
@@ -22022,16 +22020,16 @@
     </row>
     <row r="119" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="54">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C119" s="47">
-        <v>0</v>
-      </c>
-      <c r="D119" s="50" t="s">
-        <v>709</v>
+        <v>82</v>
+      </c>
+      <c r="D119" s="54" t="s">
+        <v>397</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>247</v>
@@ -22039,16 +22037,16 @@
     </row>
     <row r="120" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="54">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>240</v>
       </c>
       <c r="C120" s="47">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D120" s="50" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>247</v>
@@ -22056,16 +22054,16 @@
     </row>
     <row r="121" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="54">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>240</v>
       </c>
       <c r="C121" s="47">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D121" s="50" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>247</v>
@@ -22073,16 +22071,16 @@
     </row>
     <row r="122" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="54">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>240</v>
       </c>
       <c r="C122" s="47">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D122" s="50" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>247</v>
@@ -22090,16 +22088,16 @@
     </row>
     <row r="123" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="54">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>240</v>
       </c>
       <c r="C123" s="47">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D123" s="50" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>247</v>
@@ -22107,16 +22105,16 @@
     </row>
     <row r="124" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="54">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>240</v>
       </c>
       <c r="C124" s="47">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D124" s="50" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>247</v>
@@ -22124,16 +22122,16 @@
     </row>
     <row r="125" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="54">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>240</v>
       </c>
       <c r="C125" s="47">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D125" s="50" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>247</v>
@@ -22141,16 +22139,16 @@
     </row>
     <row r="126" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="54">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>240</v>
       </c>
       <c r="C126" s="47">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D126" s="50" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>247</v>
@@ -22158,16 +22156,16 @@
     </row>
     <row r="127" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="54">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>240</v>
       </c>
       <c r="C127" s="47">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D127" s="50" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>247</v>
@@ -22175,16 +22173,16 @@
     </row>
     <row r="128" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="54">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>240</v>
       </c>
       <c r="C128" s="47">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D128" s="50" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>247</v>
@@ -22192,16 +22190,16 @@
     </row>
     <row r="129" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="54">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>240</v>
       </c>
       <c r="C129" s="47">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D129" s="50" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>247</v>
@@ -22209,16 +22207,16 @@
     </row>
     <row r="130" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="54">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C130" s="47">
-        <v>4</v>
-      </c>
-      <c r="D130" s="54" t="s">
-        <v>398</v>
+        <v>100</v>
+      </c>
+      <c r="D130" s="50" t="s">
+        <v>717</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>247</v>
@@ -22226,16 +22224,16 @@
     </row>
     <row r="131" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="54">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>241</v>
       </c>
       <c r="C131" s="47">
-        <v>3935</v>
+        <v>4</v>
       </c>
       <c r="D131" s="54" t="s">
-        <v>323</v>
+        <v>398</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>247</v>
@@ -22243,16 +22241,16 @@
     </row>
     <row r="132" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="54">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>241</v>
       </c>
       <c r="C132" s="47">
-        <v>3</v>
+        <v>3936</v>
       </c>
       <c r="D132" s="54" t="s">
-        <v>399</v>
+        <v>323</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>247</v>
@@ -22260,16 +22258,16 @@
     </row>
     <row r="133" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="54">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>241</v>
       </c>
       <c r="C133" s="47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D133" s="54" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>247</v>
@@ -22277,16 +22275,16 @@
     </row>
     <row r="134" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="54">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>241</v>
       </c>
       <c r="C134" s="47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D134" s="54" t="s">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>247</v>
@@ -22294,16 +22292,16 @@
     </row>
     <row r="135" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="54">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>241</v>
       </c>
       <c r="C135" s="47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D135" s="54" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>247</v>
@@ -22311,50 +22309,50 @@
     </row>
     <row r="136" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="54">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>241</v>
       </c>
       <c r="C136" s="47">
+        <v>0</v>
+      </c>
+      <c r="D136" s="54" t="s">
+        <v>319</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="54">
+        <v>496</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C137" s="47">
         <v>-1</v>
       </c>
-      <c r="D136" s="54" t="s">
+      <c r="D137" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="E136" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="94">
-        <v>500</v>
-      </c>
-      <c r="B137" s="95" t="s">
-        <v>901</v>
-      </c>
-      <c r="C137" s="96">
-        <v>0</v>
-      </c>
-      <c r="D137" s="94" t="s">
-        <v>288</v>
-      </c>
-      <c r="E137" s="95" t="s">
+      <c r="E137" s="1" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="138" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="94">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B138" s="95" t="s">
         <v>901</v>
       </c>
       <c r="C138" s="96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D138" s="94" t="s">
-        <v>903</v>
+        <v>288</v>
       </c>
       <c r="E138" s="95" t="s">
         <v>247</v>
@@ -22362,16 +22360,16 @@
     </row>
     <row r="139" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="94">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B139" s="95" t="s">
         <v>901</v>
       </c>
       <c r="C139" s="96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D139" s="94" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E139" s="95" t="s">
         <v>247</v>
@@ -22379,16 +22377,16 @@
     </row>
     <row r="140" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="94">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B140" s="95" t="s">
         <v>901</v>
       </c>
       <c r="C140" s="96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D140" s="94" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E140" s="95" t="s">
         <v>247</v>
@@ -22396,16 +22394,16 @@
     </row>
     <row r="141" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="94">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B141" s="95" t="s">
         <v>901</v>
       </c>
       <c r="C141" s="96">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D141" s="94" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E141" s="95" t="s">
         <v>247</v>
@@ -22413,84 +22411,84 @@
     </row>
     <row r="142" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="94">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B142" s="95" t="s">
         <v>901</v>
       </c>
       <c r="C142" s="96">
+        <v>4</v>
+      </c>
+      <c r="D142" s="94" t="s">
+        <v>906</v>
+      </c>
+      <c r="E142" s="95" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="94">
+        <v>505</v>
+      </c>
+      <c r="B143" s="95" t="s">
+        <v>901</v>
+      </c>
+      <c r="C143" s="96">
         <v>5</v>
       </c>
-      <c r="D142" s="94" t="s">
+      <c r="D143" s="94" t="s">
         <v>907</v>
       </c>
-      <c r="E142" s="95" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="49">
+      <c r="E143" s="95" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="49">
         <v>1000</v>
       </c>
-      <c r="B143" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C143" s="49">
+      <c r="B144" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C144" s="49">
         <v>1000</v>
       </c>
-      <c r="D143" s="49" t="s">
+      <c r="D144" s="49" t="s">
         <v>518</v>
       </c>
-      <c r="E143" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="59">
+      <c r="E144" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="59">
         <v>1100</v>
       </c>
-      <c r="B144" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C144" s="59">
+      <c r="B145" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C145" s="59">
         <v>1100</v>
       </c>
-      <c r="D144" s="50" t="s">
+      <c r="D145" s="50" t="s">
         <v>401</v>
       </c>
-      <c r="E144" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="49">
+      <c r="E145" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="49">
         <v>1101</v>
       </c>
-      <c r="B145" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C145" s="49">
+      <c r="B146" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C146" s="49">
         <v>1101</v>
       </c>
-      <c r="D145" s="49" t="s">
+      <c r="D146" s="49" t="s">
         <v>432</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="59">
-        <v>1103</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C146" s="59">
-        <v>1103</v>
-      </c>
-      <c r="D146" s="50" t="s">
-        <v>402</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>246</v>
@@ -22498,16 +22496,16 @@
     </row>
     <row r="147" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="59">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C147" s="59">
-        <v>1104</v>
-      </c>
-      <c r="D147" s="51" t="s">
-        <v>431</v>
+        <v>1103</v>
+      </c>
+      <c r="D147" s="50" t="s">
+        <v>402</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>246</v>
@@ -22515,16 +22513,16 @@
     </row>
     <row r="148" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="59">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C148" s="59">
-        <v>1105</v>
-      </c>
-      <c r="D148" s="50" t="s">
-        <v>403</v>
+        <v>1104</v>
+      </c>
+      <c r="D148" s="51" t="s">
+        <v>431</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>246</v>
@@ -22532,16 +22530,16 @@
     </row>
     <row r="149" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="59">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C149" s="59">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="D149" s="50" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>246</v>
@@ -22549,84 +22547,84 @@
     </row>
     <row r="150" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="59">
+        <v>1106</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C150" s="59">
+        <v>1106</v>
+      </c>
+      <c r="D150" s="50" t="s">
+        <v>404</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="59">
         <v>1200</v>
       </c>
-      <c r="B150" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C150" s="59">
+      <c r="B151" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C151" s="59">
         <v>1200</v>
       </c>
-      <c r="D150" s="50" t="s">
+      <c r="D151" s="50" t="s">
         <v>405</v>
       </c>
-      <c r="E150" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="49">
-        <v>1201</v>
-      </c>
-      <c r="B151" s="45" t="s">
-        <v>223</v>
-      </c>
-      <c r="C151" s="49">
-        <v>1201</v>
-      </c>
-      <c r="D151" s="49" t="s">
-        <v>467</v>
-      </c>
-      <c r="E151" s="45" t="s">
+      <c r="E151" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="152" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="49">
+        <v>1201</v>
+      </c>
+      <c r="B152" s="45" t="s">
+        <v>223</v>
+      </c>
+      <c r="C152" s="49">
+        <v>1201</v>
+      </c>
+      <c r="D152" s="49" t="s">
+        <v>467</v>
+      </c>
+      <c r="E152" s="45" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="49">
         <v>1202</v>
       </c>
-      <c r="B152" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C152" s="49">
+      <c r="B153" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C153" s="49">
         <v>1202</v>
       </c>
-      <c r="D152" s="49" t="s">
+      <c r="D153" s="49" t="s">
         <v>468</v>
       </c>
-      <c r="E152" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="59">
+      <c r="E153" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="59">
         <v>1204</v>
       </c>
-      <c r="B153" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C153" s="59">
+      <c r="B154" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C154" s="59">
         <v>1204</v>
       </c>
-      <c r="D153" s="50" t="s">
+      <c r="D154" s="50" t="s">
         <v>406</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="49">
-        <v>1205</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C154" s="49">
-        <v>1205</v>
-      </c>
-      <c r="D154" s="49" t="s">
-        <v>469</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>246</v>
@@ -22634,67 +22632,67 @@
     </row>
     <row r="155" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="49">
+        <v>1205</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C155" s="49">
+        <v>1205</v>
+      </c>
+      <c r="D155" s="49" t="s">
+        <v>469</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="49">
         <v>1221</v>
       </c>
-      <c r="B155" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C155" s="49">
+      <c r="B156" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C156" s="49">
         <v>1221</v>
       </c>
-      <c r="D155" s="49" t="s">
+      <c r="D156" s="49" t="s">
         <v>502</v>
       </c>
-      <c r="E155" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="47">
+      <c r="E156" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="47">
         <v>1221</v>
       </c>
-      <c r="B156" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C156" s="47">
+      <c r="B157" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C157" s="47">
         <v>1221</v>
       </c>
-      <c r="D156" s="54" t="s">
+      <c r="D157" s="54" t="s">
         <v>306</v>
       </c>
-      <c r="E156" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="52">
+      <c r="E157" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="52">
         <v>1231</v>
       </c>
-      <c r="B157" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C157" s="52">
+      <c r="B158" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C158" s="52">
         <v>1231</v>
       </c>
-      <c r="D157" s="52" t="s">
+      <c r="D158" s="52" t="s">
         <v>564</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="49">
-        <v>1241</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C158" s="49">
-        <v>1241</v>
-      </c>
-      <c r="D158" s="54" t="s">
-        <v>591</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>246</v>
@@ -22702,16 +22700,16 @@
     </row>
     <row r="159" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="49">
-        <v>1301</v>
+        <v>1241</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C159" s="49">
-        <v>1301</v>
-      </c>
-      <c r="D159" s="49" t="s">
-        <v>457</v>
+        <v>1241</v>
+      </c>
+      <c r="D159" s="54" t="s">
+        <v>591</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>246</v>
@@ -22719,16 +22717,16 @@
     </row>
     <row r="160" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="49">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C160" s="49">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="D160" s="49" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>246</v>
@@ -22736,16 +22734,16 @@
     </row>
     <row r="161" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="49">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C161" s="49">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="D161" s="49" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>246</v>
@@ -22753,67 +22751,67 @@
     </row>
     <row r="162" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="49">
+        <v>1303</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C162" s="49">
+        <v>1303</v>
+      </c>
+      <c r="D162" s="49" t="s">
+        <v>456</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="49">
         <v>1304</v>
       </c>
-      <c r="B162" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C162" s="49">
+      <c r="B163" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C163" s="49">
         <v>1304</v>
       </c>
-      <c r="D162" s="49" t="s">
+      <c r="D163" s="49" t="s">
         <v>458</v>
       </c>
-      <c r="E162" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="59">
+      <c r="E163" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="59">
         <v>1310</v>
       </c>
-      <c r="B163" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C163" s="59">
+      <c r="B164" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C164" s="59">
         <v>1310</v>
       </c>
-      <c r="D163" s="50" t="s">
+      <c r="D164" s="50" t="s">
         <v>407</v>
       </c>
-      <c r="E163" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="60">
+      <c r="E164" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="60">
         <v>1900</v>
       </c>
-      <c r="B164" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C164" s="60">
+      <c r="B165" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C165" s="60">
         <v>1900</v>
       </c>
-      <c r="D164" s="53" t="s">
+      <c r="D165" s="53" t="s">
         <v>665</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="48">
-        <v>1901</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C165" s="48">
-        <v>1901</v>
-      </c>
-      <c r="D165" s="54" t="s">
-        <v>740</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>246</v>
@@ -22821,16 +22819,16 @@
     </row>
     <row r="166" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="48">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C166" s="48">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="D166" s="54" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>246</v>
@@ -22838,16 +22836,16 @@
     </row>
     <row r="167" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="48">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C167" s="48">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="D167" s="54" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>246</v>
@@ -22855,33 +22853,33 @@
     </row>
     <row r="168" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="48">
+        <v>1903</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C168" s="48">
+        <v>1903</v>
+      </c>
+      <c r="D168" s="54" t="s">
+        <v>746</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="48">
         <v>1910</v>
       </c>
-      <c r="B168" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C168" s="48">
+      <c r="B169" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C169" s="48">
         <v>1910</v>
       </c>
-      <c r="D168" s="54" t="s">
+      <c r="D169" s="54" t="s">
         <v>341</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="61">
-        <v>1991</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C169" s="61">
-        <v>1991</v>
-      </c>
-      <c r="D169" s="55" t="s">
-        <v>669</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>246</v>
@@ -22889,16 +22887,16 @@
     </row>
     <row r="170" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="61">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C170" s="61">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="D170" s="55" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>246</v>
@@ -22906,50 +22904,50 @@
     </row>
     <row r="171" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="61">
+        <v>1992</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C171" s="61">
+        <v>1992</v>
+      </c>
+      <c r="D171" s="55" t="s">
+        <v>668</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="61">
         <v>1993</v>
       </c>
-      <c r="B171" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C171" s="61">
+      <c r="B172" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C172" s="61">
         <v>1993</v>
       </c>
-      <c r="D171" s="55" t="s">
+      <c r="D172" s="55" t="s">
         <v>670</v>
       </c>
-      <c r="E171" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="59">
+      <c r="E172" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="59">
         <v>1994</v>
       </c>
-      <c r="B172" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C172" s="59">
+      <c r="B173" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C173" s="59">
         <v>1994</v>
       </c>
-      <c r="D172" s="55" t="s">
+      <c r="D173" s="55" t="s">
         <v>671</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="61">
-        <v>1995</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C173" s="61">
-        <v>1995</v>
-      </c>
-      <c r="D173" s="50" t="s">
-        <v>672</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>246</v>
@@ -22957,16 +22955,16 @@
     </row>
     <row r="174" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="61">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C174" s="61">
-        <v>1996</v>
-      </c>
-      <c r="D174" s="55" t="s">
-        <v>673</v>
+        <v>1995</v>
+      </c>
+      <c r="D174" s="50" t="s">
+        <v>672</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>246</v>
@@ -22974,16 +22972,16 @@
     </row>
     <row r="175" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="61">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C175" s="61">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="D175" s="55" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>246</v>
@@ -22991,16 +22989,16 @@
     </row>
     <row r="176" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="61">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C176" s="61">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="D176" s="55" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>246</v>
@@ -23008,16 +23006,16 @@
     </row>
     <row r="177" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="61">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C177" s="61">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="D177" s="55" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>246</v>
@@ -23025,16 +23023,16 @@
     </row>
     <row r="178" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="61">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C178" s="61">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="D178" s="55" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>246</v>
@@ -23042,33 +23040,33 @@
     </row>
     <row r="179" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="61">
+        <v>2001</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C179" s="61">
+        <v>2001</v>
+      </c>
+      <c r="D179" s="55" t="s">
+        <v>677</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="61">
         <v>2002</v>
       </c>
-      <c r="B179" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C179" s="61">
+      <c r="B180" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C180" s="61">
         <v>2002</v>
       </c>
-      <c r="D179" s="55" t="s">
+      <c r="D180" s="55" t="s">
         <v>678</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" s="62">
-        <v>2003</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C180" s="62">
-        <v>2003</v>
-      </c>
-      <c r="D180" s="56" t="s">
-        <v>679</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>246</v>
@@ -23082,27 +23080,27 @@
         <v>223</v>
       </c>
       <c r="C181" s="62">
+        <v>2003</v>
+      </c>
+      <c r="D181" s="56" t="s">
+        <v>679</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" s="62">
+        <v>2003</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C182" s="62">
         <v>2013</v>
       </c>
-      <c r="D181" s="56" t="s">
+      <c r="D182" s="56" t="s">
         <v>680</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182" s="61">
-        <v>2004</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C182" s="61">
-        <v>2004</v>
-      </c>
-      <c r="D182" s="55" t="s">
-        <v>681</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>246</v>
@@ -23110,87 +23108,87 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="61">
-        <v>2005</v>
-      </c>
-      <c r="B183" s="45" t="s">
+        <v>2004</v>
+      </c>
+      <c r="B183" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C183" s="61">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="D183" s="55" t="s">
-        <v>682</v>
-      </c>
-      <c r="E183" s="45" t="s">
+        <v>681</v>
+      </c>
+      <c r="E183" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="61">
-        <v>2006</v>
-      </c>
-      <c r="B184" s="1" t="s">
+        <v>2005</v>
+      </c>
+      <c r="B184" s="45" t="s">
         <v>223</v>
       </c>
       <c r="C184" s="61">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="D184" s="55" t="s">
-        <v>683</v>
-      </c>
-      <c r="E184" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="E184" s="45" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="61">
-        <v>2007</v>
-      </c>
-      <c r="B185" s="45" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B185" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C185" s="61">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="D185" s="55" t="s">
-        <v>684</v>
-      </c>
-      <c r="E185" s="45" t="s">
-        <v>246</v>
-      </c>
-      <c r="F185" s="3" t="s">
-        <v>417</v>
+        <v>683</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="61">
-        <v>2008</v>
-      </c>
-      <c r="B186" s="1" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B186" s="45" t="s">
         <v>223</v>
       </c>
       <c r="C186" s="61">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="D186" s="55" t="s">
-        <v>685</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>246</v>
+        <v>684</v>
+      </c>
+      <c r="E186" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="F186" s="3" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="61">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C187" s="61">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="D187" s="55" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>246</v>
@@ -23198,33 +23196,33 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="61">
+        <v>2009</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C188" s="61">
+        <v>2009</v>
+      </c>
+      <c r="D188" s="55" t="s">
+        <v>686</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" s="61">
         <v>2010</v>
       </c>
-      <c r="B188" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C188" s="61">
+      <c r="B189" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C189" s="61">
         <v>2010</v>
       </c>
-      <c r="D188" s="55" t="s">
+      <c r="D189" s="55" t="s">
         <v>687</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189" s="59">
-        <v>2012</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C189" s="59">
-        <v>2012</v>
-      </c>
-      <c r="D189" s="55" t="s">
-        <v>688</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>246</v>
@@ -23232,121 +23230,121 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="59">
+        <v>2012</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C190" s="59">
+        <v>2012</v>
+      </c>
+      <c r="D190" s="55" t="s">
+        <v>688</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" s="59">
         <v>2100</v>
       </c>
-      <c r="B190" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C190" s="59">
+      <c r="B191" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C191" s="59">
         <v>2100</v>
       </c>
-      <c r="D190" s="50" t="s">
+      <c r="D191" s="50" t="s">
         <v>438</v>
       </c>
-      <c r="E190" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A191" s="49">
+      <c r="E191" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" s="49">
         <v>2103</v>
       </c>
-      <c r="B191" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C191" s="49">
+      <c r="B192" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C192" s="49">
         <v>2103</v>
       </c>
-      <c r="D191" s="49" t="s">
+      <c r="D192" s="49" t="s">
         <v>446</v>
       </c>
-      <c r="E191" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="F191" s="3" t="s">
+      <c r="E192" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F192" s="3" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A192" s="59">
+    <row r="193" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="59">
         <v>2108</v>
       </c>
-      <c r="B192" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C192" s="59">
+      <c r="B193" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C193" s="59">
         <v>2108</v>
       </c>
-      <c r="D192" s="50" t="s">
+      <c r="D193" s="50" t="s">
         <v>408</v>
       </c>
-      <c r="E192" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" s="59">
+      <c r="E193" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="59">
         <v>2113</v>
       </c>
-      <c r="B193" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C193" s="59">
+      <c r="B194" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C194" s="59">
         <v>2113</v>
       </c>
-      <c r="D193" s="50" t="s">
+      <c r="D194" s="50" t="s">
         <v>409</v>
       </c>
-      <c r="E193" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" s="49">
+      <c r="E194" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="49">
         <v>2116</v>
       </c>
-      <c r="B194" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C194" s="49">
+      <c r="B195" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C195" s="49">
         <v>2116</v>
       </c>
-      <c r="D194" s="54" t="s">
+      <c r="D195" s="54" t="s">
         <v>439</v>
       </c>
-      <c r="E194" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" s="49">
+      <c r="E195" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="49">
         <v>2117</v>
       </c>
-      <c r="B195" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C195" s="49">
+      <c r="B196" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C196" s="49">
         <v>2117</v>
       </c>
-      <c r="D195" s="49" t="s">
+      <c r="D196" s="49" t="s">
         <v>447</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="49">
-        <v>2118</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C196" s="49">
-        <v>2118</v>
-      </c>
-      <c r="D196" s="49" t="s">
-        <v>449</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>246</v>
@@ -23354,16 +23352,16 @@
     </row>
     <row r="197" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="49">
-        <v>2126</v>
+        <v>2118</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C197" s="49">
-        <v>2126</v>
+        <v>2118</v>
       </c>
       <c r="D197" s="49" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>246</v>
@@ -23371,16 +23369,16 @@
     </row>
     <row r="198" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="49">
-        <v>2129</v>
+        <v>2126</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C198" s="49">
-        <v>2129</v>
+        <v>2126</v>
       </c>
       <c r="D198" s="49" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>246</v>
@@ -23388,84 +23386,84 @@
     </row>
     <row r="199" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="49">
+        <v>2129</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C199" s="49">
+        <v>2129</v>
+      </c>
+      <c r="D199" s="49" t="s">
+        <v>451</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="49">
         <v>2130</v>
       </c>
-      <c r="B199" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C199" s="49">
+      <c r="B200" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C200" s="49">
         <v>2130</v>
       </c>
-      <c r="D199" s="49" t="s">
+      <c r="D200" s="49" t="s">
         <v>452</v>
       </c>
-      <c r="E199" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="59">
+      <c r="E200" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="59">
         <v>2200</v>
       </c>
-      <c r="B200" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C200" s="59">
+      <c r="B201" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C201" s="59">
         <v>2200</v>
       </c>
-      <c r="D200" s="50" t="s">
+      <c r="D201" s="50" t="s">
         <v>343</v>
       </c>
-      <c r="E200" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="49">
+      <c r="E201" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="49">
         <v>2201</v>
       </c>
-      <c r="B201" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C201" s="49">
+      <c r="B202" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C202" s="49">
         <v>2201</v>
       </c>
-      <c r="D201" s="49" t="s">
+      <c r="D202" s="49" t="s">
         <v>575</v>
       </c>
-      <c r="E201" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="43">
+      <c r="E202" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="43">
         <v>2203</v>
       </c>
-      <c r="B202" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C202" s="43">
+      <c r="B203" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C203" s="43">
         <v>2203</v>
       </c>
-      <c r="D202" s="43" t="s">
+      <c r="D203" s="43" t="s">
         <v>607</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="54">
-        <v>2206</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C203" s="54">
-        <v>2206</v>
-      </c>
-      <c r="D203" s="54" t="s">
-        <v>576</v>
       </c>
       <c r="E203" s="1" t="s">
         <v>246</v>
@@ -23473,84 +23471,84 @@
     </row>
     <row r="204" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="54">
+        <v>2206</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C204" s="54">
+        <v>2206</v>
+      </c>
+      <c r="D204" s="54" t="s">
+        <v>576</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="54">
         <v>2209</v>
       </c>
-      <c r="B204" s="45" t="s">
-        <v>223</v>
-      </c>
-      <c r="C204" s="54">
+      <c r="B205" s="45" t="s">
+        <v>223</v>
+      </c>
+      <c r="C205" s="54">
         <v>2209</v>
       </c>
-      <c r="D204" s="54" t="s">
+      <c r="D205" s="54" t="s">
         <v>316</v>
       </c>
-      <c r="E204" s="45" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="47">
+      <c r="E205" s="45" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="47">
         <v>2211</v>
       </c>
-      <c r="B205" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C205" s="47">
+      <c r="B206" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C206" s="47">
         <v>2211</v>
       </c>
-      <c r="D205" s="54" t="s">
+      <c r="D206" s="54" t="s">
         <v>317</v>
       </c>
-      <c r="E205" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="49">
+      <c r="E206" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="49">
         <v>2215</v>
       </c>
-      <c r="B206" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C206" s="49">
+      <c r="B207" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C207" s="49">
         <v>2215</v>
       </c>
-      <c r="D206" s="49" t="s">
+      <c r="D207" s="49" t="s">
         <v>578</v>
       </c>
-      <c r="E206" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="47">
+      <c r="E207" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="47">
         <v>2217</v>
       </c>
-      <c r="B207" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C207" s="47">
+      <c r="B208" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C208" s="47">
         <v>2217</v>
       </c>
-      <c r="D207" s="54" t="s">
+      <c r="D208" s="54" t="s">
         <v>318</v>
-      </c>
-      <c r="E207" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="49">
-        <v>2218</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C208" s="49">
-        <v>2218</v>
-      </c>
-      <c r="D208" s="49" t="s">
-        <v>579</v>
       </c>
       <c r="E208" s="1" t="s">
         <v>246</v>
@@ -23558,305 +23556,305 @@
     </row>
     <row r="209" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="49">
+        <v>2218</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C209" s="49">
+        <v>2218</v>
+      </c>
+      <c r="D209" s="49" t="s">
+        <v>579</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="49">
         <v>2221</v>
       </c>
-      <c r="B209" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C209" s="49">
+      <c r="B210" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C210" s="49">
         <v>2221</v>
       </c>
-      <c r="D209" s="49" t="s">
+      <c r="D210" s="49" t="s">
         <v>580</v>
       </c>
-      <c r="E209" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="54">
+      <c r="E210" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="54">
         <v>2222</v>
       </c>
-      <c r="B210" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C210" s="54">
+      <c r="B211" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C211" s="54">
         <v>2222</v>
       </c>
-      <c r="D210" s="54" t="s">
+      <c r="D211" s="54" t="s">
         <v>577</v>
       </c>
-      <c r="E210" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="43">
+      <c r="E211" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="43">
         <v>2225</v>
       </c>
-      <c r="B211" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C211" s="43">
+      <c r="B212" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C212" s="43">
         <v>2225</v>
       </c>
-      <c r="D211" s="43" t="s">
+      <c r="D212" s="43" t="s">
         <v>609</v>
       </c>
-      <c r="E211" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="49">
+      <c r="E212" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="49">
         <v>2229</v>
       </c>
-      <c r="B212" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C212" s="49">
+      <c r="B213" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C213" s="49">
         <v>2229</v>
       </c>
-      <c r="D212" s="49" t="s">
+      <c r="D213" s="49" t="s">
         <v>582</v>
       </c>
-      <c r="E212" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="43">
+      <c r="E213" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="43">
         <v>2230</v>
       </c>
-      <c r="B213" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C213" s="43">
+      <c r="B214" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C214" s="43">
         <v>2230</v>
       </c>
-      <c r="D213" s="43" t="s">
+      <c r="D214" s="43" t="s">
         <v>610</v>
       </c>
-      <c r="E213" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="49">
+      <c r="E214" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="49">
         <v>2231</v>
       </c>
-      <c r="B214" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C214" s="49">
+      <c r="B215" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C215" s="49">
         <v>2231</v>
       </c>
-      <c r="D214" s="49" t="s">
+      <c r="D215" s="49" t="s">
         <v>584</v>
       </c>
-      <c r="E214" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="43">
+      <c r="E215" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="43">
         <v>2235</v>
       </c>
-      <c r="B215" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C215" s="43">
+      <c r="B216" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C216" s="43">
         <v>2235</v>
       </c>
-      <c r="D215" s="43" t="s">
+      <c r="D216" s="43" t="s">
         <v>608</v>
       </c>
-      <c r="E215" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="54">
+      <c r="E216" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="54">
         <v>2244</v>
       </c>
-      <c r="B216" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C216" s="54">
+      <c r="B217" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C217" s="54">
         <v>2244</v>
       </c>
-      <c r="D216" s="54" t="s">
+      <c r="D217" s="54" t="s">
         <v>583</v>
       </c>
-      <c r="E216" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="59">
+      <c r="E217" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="59">
         <v>2250</v>
       </c>
-      <c r="B217" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C217" s="59">
+      <c r="B218" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C218" s="59">
         <v>2250</v>
       </c>
-      <c r="D217" s="50" t="s">
+      <c r="D218" s="50" t="s">
         <v>344</v>
       </c>
-      <c r="E217" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="49">
+      <c r="E218" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="49">
         <v>2306</v>
       </c>
-      <c r="B218" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C218" s="49">
+      <c r="B219" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C219" s="49">
         <v>2306</v>
       </c>
-      <c r="D218" s="49" t="s">
+      <c r="D219" s="49" t="s">
         <v>430</v>
       </c>
-      <c r="E218" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="47">
+      <c r="E219" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="47">
         <v>2308</v>
       </c>
-      <c r="B219" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C219" s="47">
+      <c r="B220" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C220" s="47">
         <v>2308</v>
       </c>
-      <c r="D219" s="54" t="s">
+      <c r="D220" s="54" t="s">
         <v>301</v>
       </c>
-      <c r="E219" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="49">
+      <c r="E220" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="49">
         <v>2309</v>
       </c>
-      <c r="B220" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C220" s="49">
+      <c r="B221" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C221" s="49">
         <v>2309</v>
       </c>
-      <c r="D220" s="49" t="s">
+      <c r="D221" s="49" t="s">
         <v>433</v>
       </c>
-      <c r="E220" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="47">
+      <c r="E221" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="47">
         <v>2381</v>
       </c>
-      <c r="B221" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C221" s="47">
+      <c r="B222" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C222" s="47">
         <v>2381</v>
       </c>
-      <c r="D221" s="54" t="s">
+      <c r="D222" s="54" t="s">
         <v>312</v>
       </c>
-      <c r="E221" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="54">
+      <c r="E222" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="54">
         <v>2382</v>
       </c>
-      <c r="B222" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C222" s="54">
+      <c r="B223" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C223" s="54">
         <v>2382</v>
       </c>
-      <c r="D222" s="54" t="s">
+      <c r="D223" s="54" t="s">
         <v>702</v>
       </c>
-      <c r="E222" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="47">
+      <c r="E223" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="47">
         <v>2382</v>
       </c>
-      <c r="B223" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C223" s="47">
+      <c r="B224" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C224" s="47">
         <v>2382</v>
       </c>
-      <c r="D223" s="54" t="s">
+      <c r="D224" s="54" t="s">
         <v>313</v>
       </c>
-      <c r="E223" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="49">
+      <c r="E224" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="49">
         <v>2390</v>
       </c>
-      <c r="B224" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C224" s="49">
+      <c r="B225" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C225" s="49">
         <v>2390</v>
       </c>
-      <c r="D224" s="49" t="s">
+      <c r="D225" s="49" t="s">
         <v>546</v>
       </c>
-      <c r="E224" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="47">
+      <c r="E225" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="47">
         <v>2394</v>
       </c>
-      <c r="B225" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C225" s="47">
+      <c r="B226" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C226" s="47">
         <v>2394</v>
       </c>
-      <c r="D225" s="54" t="s">
+      <c r="D226" s="54" t="s">
         <v>308</v>
-      </c>
-      <c r="E225" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="49">
-        <v>2411</v>
-      </c>
-      <c r="B226" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C226" s="49">
-        <v>2411</v>
-      </c>
-      <c r="D226" s="49" t="s">
-        <v>555</v>
       </c>
       <c r="E226" s="1" t="s">
         <v>246</v>
@@ -23864,16 +23862,16 @@
     </row>
     <row r="227" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="49">
-        <v>2420</v>
+        <v>2411</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C227" s="49">
-        <v>2420</v>
+        <v>2411</v>
       </c>
       <c r="D227" s="49" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>246</v>
@@ -23881,16 +23879,16 @@
     </row>
     <row r="228" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="49">
-        <v>2440</v>
+        <v>2420</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C228" s="49">
-        <v>2440</v>
+        <v>2420</v>
       </c>
       <c r="D228" s="49" t="s">
-        <v>592</v>
+        <v>560</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>246</v>
@@ -23898,16 +23896,16 @@
     </row>
     <row r="229" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="49">
-        <v>2450</v>
+        <v>2440</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C229" s="49">
-        <v>2450</v>
+        <v>2440</v>
       </c>
       <c r="D229" s="49" t="s">
-        <v>426</v>
+        <v>592</v>
       </c>
       <c r="E229" s="1" t="s">
         <v>246</v>
@@ -23915,135 +23913,135 @@
     </row>
     <row r="230" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="49">
+        <v>2450</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C230" s="49">
+        <v>2450</v>
+      </c>
+      <c r="D230" s="49" t="s">
+        <v>426</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="49">
         <v>2451</v>
       </c>
-      <c r="B230" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C230" s="49">
+      <c r="B231" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C231" s="49">
         <v>2451</v>
       </c>
-      <c r="D230" s="49" t="s">
+      <c r="D231" s="49" t="s">
         <v>425</v>
       </c>
-      <c r="E230" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="60">
+      <c r="E231" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="60">
         <v>2900</v>
       </c>
-      <c r="B231" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C231" s="60">
+      <c r="B232" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C232" s="60">
         <v>2900</v>
       </c>
-      <c r="D231" s="51" t="s">
+      <c r="D232" s="51" t="s">
         <v>720</v>
       </c>
-      <c r="E231" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="49">
+      <c r="E232" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="49">
         <v>2910</v>
       </c>
-      <c r="B232" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C232" s="49">
+      <c r="B233" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C233" s="49">
         <v>2910</v>
       </c>
-      <c r="D232" s="49" t="s">
+      <c r="D233" s="49" t="s">
         <v>721</v>
       </c>
-      <c r="E232" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="59">
+      <c r="E233" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="59">
         <v>2990</v>
       </c>
-      <c r="B233" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C233" s="59">
+      <c r="B234" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C234" s="59">
         <v>2990</v>
       </c>
-      <c r="D233" s="50" t="s">
+      <c r="D234" s="50" t="s">
         <v>336</v>
       </c>
-      <c r="E233" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="60">
+      <c r="E234" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="60">
         <v>2994</v>
       </c>
-      <c r="B234" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C234" s="60">
+      <c r="B235" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C235" s="60">
         <v>2994</v>
       </c>
-      <c r="D234" s="57" t="s">
+      <c r="D235" s="57" t="s">
         <v>496</v>
       </c>
-      <c r="E234" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="59">
+      <c r="E235" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="59">
         <v>2995</v>
       </c>
-      <c r="B235" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C235" s="59">
+      <c r="B236" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C236" s="59">
         <v>2995</v>
       </c>
-      <c r="D235" s="50" t="s">
+      <c r="D236" s="50" t="s">
         <v>410</v>
       </c>
-      <c r="E235" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="60">
+      <c r="E236" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="60">
         <v>2998</v>
       </c>
-      <c r="B236" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C236" s="60">
+      <c r="B237" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C237" s="60">
         <v>2998</v>
       </c>
-      <c r="D236" s="51" t="s">
+      <c r="D237" s="51" t="s">
         <v>411</v>
-      </c>
-      <c r="E236" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="49">
-        <v>3011</v>
-      </c>
-      <c r="B237" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C237" s="49">
-        <v>3011</v>
-      </c>
-      <c r="D237" s="49" t="s">
-        <v>427</v>
       </c>
       <c r="E237" s="1" t="s">
         <v>246</v>
@@ -24051,50 +24049,50 @@
     </row>
     <row r="238" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="49">
+        <v>3011</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C238" s="49">
+        <v>3011</v>
+      </c>
+      <c r="D238" s="49" t="s">
+        <v>427</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="49">
         <v>3021</v>
       </c>
-      <c r="B238" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C238" s="49">
+      <c r="B239" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C239" s="49">
         <v>3021</v>
       </c>
-      <c r="D238" s="49" t="s">
+      <c r="D239" s="49" t="s">
         <v>428</v>
       </c>
-      <c r="E238" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="59">
+      <c r="E239" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="59">
         <v>3030</v>
       </c>
-      <c r="B239" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C239" s="59">
+      <c r="B240" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C240" s="59">
         <v>3030</v>
       </c>
-      <c r="D239" s="50" t="s">
+      <c r="D240" s="50" t="s">
         <v>412</v>
-      </c>
-      <c r="E239" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="49">
-        <v>3031</v>
-      </c>
-      <c r="B240" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C240" s="49">
-        <v>3031</v>
-      </c>
-      <c r="D240" s="49" t="s">
-        <v>440</v>
       </c>
       <c r="E240" s="1" t="s">
         <v>246</v>
@@ -24102,16 +24100,16 @@
     </row>
     <row r="241" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" s="49">
-        <v>3032</v>
+        <v>3031</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C241" s="49">
-        <v>3032</v>
+        <v>3031</v>
       </c>
       <c r="D241" s="49" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E241" s="1" t="s">
         <v>246</v>
@@ -24119,33 +24117,33 @@
     </row>
     <row r="242" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="49">
+        <v>3032</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C242" s="49">
+        <v>3032</v>
+      </c>
+      <c r="D242" s="49" t="s">
+        <v>441</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="49">
         <v>3033</v>
       </c>
-      <c r="B242" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C242" s="49">
+      <c r="B243" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C243" s="49">
         <v>3033</v>
       </c>
-      <c r="D242" s="49" t="s">
+      <c r="D243" s="49" t="s">
         <v>442</v>
-      </c>
-      <c r="E242" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="59">
-        <v>3040</v>
-      </c>
-      <c r="B243" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C243" s="59">
-        <v>3040</v>
-      </c>
-      <c r="D243" s="50" t="s">
-        <v>413</v>
       </c>
       <c r="E243" s="1" t="s">
         <v>246</v>
@@ -24153,16 +24151,16 @@
     </row>
     <row r="244" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244" s="59">
-        <v>3042</v>
+        <v>3040</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C244" s="59">
-        <v>3042</v>
+        <v>3040</v>
       </c>
       <c r="D244" s="50" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E244" s="1" t="s">
         <v>246</v>
@@ -24170,33 +24168,33 @@
     </row>
     <row r="245" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" s="59">
+        <v>3042</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C245" s="59">
+        <v>3042</v>
+      </c>
+      <c r="D245" s="50" t="s">
+        <v>414</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="59">
         <v>3044</v>
       </c>
-      <c r="B245" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C245" s="59">
+      <c r="B246" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C246" s="59">
         <v>3044</v>
       </c>
-      <c r="D245" s="50" t="s">
+      <c r="D246" s="50" t="s">
         <v>415</v>
-      </c>
-      <c r="E245" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="49">
-        <v>3045</v>
-      </c>
-      <c r="B246" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C246" s="49">
-        <v>3045</v>
-      </c>
-      <c r="D246" s="49" t="s">
-        <v>443</v>
       </c>
       <c r="E246" s="1" t="s">
         <v>246</v>
@@ -24204,67 +24202,67 @@
     </row>
     <row r="247" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" s="49">
+        <v>3045</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C247" s="49">
+        <v>3045</v>
+      </c>
+      <c r="D247" s="49" t="s">
+        <v>443</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="49">
         <v>3051</v>
       </c>
-      <c r="B247" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C247" s="49">
+      <c r="B248" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C248" s="49">
         <v>3051</v>
       </c>
-      <c r="D247" s="49" t="s">
+      <c r="D248" s="49" t="s">
         <v>462</v>
       </c>
-      <c r="E247" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="59">
+      <c r="E248" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="59">
         <v>3060</v>
       </c>
-      <c r="B248" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C248" s="59">
+      <c r="B249" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C249" s="59">
         <v>3060</v>
       </c>
-      <c r="D248" s="50" t="s">
+      <c r="D249" s="50" t="s">
         <v>335</v>
       </c>
-      <c r="E248" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="54">
+      <c r="E249" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="54">
         <v>3061</v>
       </c>
-      <c r="B249" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C249" s="54">
+      <c r="B250" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C250" s="54">
         <v>3061</v>
       </c>
-      <c r="D249" s="54" t="s">
+      <c r="D250" s="54" t="s">
         <v>463</v>
-      </c>
-      <c r="E249" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="49">
-        <v>3062</v>
-      </c>
-      <c r="B250" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C250" s="49">
-        <v>3062</v>
-      </c>
-      <c r="D250" s="49" t="s">
-        <v>464</v>
       </c>
       <c r="E250" s="1" t="s">
         <v>246</v>
@@ -24272,16 +24270,16 @@
     </row>
     <row r="251" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="49">
-        <v>3063</v>
+        <v>3062</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C251" s="49">
-        <v>3063</v>
+        <v>3062</v>
       </c>
       <c r="D251" s="49" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E251" s="1" t="s">
         <v>246</v>
@@ -24289,16 +24287,16 @@
     </row>
     <row r="252" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="49">
-        <v>3071</v>
+        <v>3063</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C252" s="49">
-        <v>3071</v>
+        <v>3063</v>
       </c>
       <c r="D252" s="49" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E252" s="1" t="s">
         <v>246</v>
@@ -24306,16 +24304,16 @@
     </row>
     <row r="253" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" s="49">
-        <v>3081</v>
+        <v>3071</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C253" s="49">
-        <v>3081</v>
+        <v>3071</v>
       </c>
       <c r="D253" s="49" t="s">
-        <v>484</v>
+        <v>466</v>
       </c>
       <c r="E253" s="1" t="s">
         <v>246</v>
@@ -24323,16 +24321,16 @@
     </row>
     <row r="254" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A254" s="49">
-        <v>3091</v>
+        <v>3081</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C254" s="49">
-        <v>3091</v>
+        <v>3081</v>
       </c>
       <c r="D254" s="49" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="E254" s="1" t="s">
         <v>246</v>
@@ -24340,16 +24338,16 @@
     </row>
     <row r="255" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="49">
-        <v>3101</v>
+        <v>3091</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C255" s="49">
-        <v>3101</v>
+        <v>3091</v>
       </c>
       <c r="D255" s="49" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E255" s="1" t="s">
         <v>246</v>
@@ -24357,16 +24355,16 @@
     </row>
     <row r="256" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="49">
-        <v>3111</v>
+        <v>3101</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C256" s="49">
-        <v>3111</v>
+        <v>3101</v>
       </c>
       <c r="D256" s="49" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="E256" s="1" t="s">
         <v>246</v>
@@ -24374,16 +24372,16 @@
     </row>
     <row r="257" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="49">
-        <v>3121</v>
+        <v>3111</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C257" s="49">
-        <v>3121</v>
+        <v>3111</v>
       </c>
       <c r="D257" s="49" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="E257" s="1" t="s">
         <v>246</v>
@@ -24391,16 +24389,16 @@
     </row>
     <row r="258" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="49">
-        <v>3131</v>
+        <v>3121</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C258" s="49">
-        <v>3131</v>
+        <v>3121</v>
       </c>
       <c r="D258" s="49" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="E258" s="1" t="s">
         <v>246</v>
@@ -24408,50 +24406,50 @@
     </row>
     <row r="259" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" s="49">
+        <v>3131</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C259" s="49">
+        <v>3131</v>
+      </c>
+      <c r="D259" s="49" t="s">
+        <v>514</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="49">
         <v>3140</v>
       </c>
-      <c r="B259" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C259" s="49">
+      <c r="B260" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C260" s="49">
         <v>3140</v>
       </c>
-      <c r="D259" s="49" t="s">
+      <c r="D260" s="49" t="s">
         <v>516</v>
       </c>
-      <c r="E259" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="43">
+      <c r="E260" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="43">
         <v>3141</v>
       </c>
-      <c r="B260" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C260" s="43">
+      <c r="B261" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C261" s="43">
         <v>3141</v>
       </c>
-      <c r="D260" s="43" t="s">
+      <c r="D261" s="43" t="s">
         <v>613</v>
-      </c>
-      <c r="E260" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="49">
-        <v>3151</v>
-      </c>
-      <c r="B261" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C261" s="49">
-        <v>3151</v>
-      </c>
-      <c r="D261" s="49" t="s">
-        <v>517</v>
       </c>
       <c r="E261" s="1" t="s">
         <v>246</v>
@@ -24459,16 +24457,16 @@
     </row>
     <row r="262" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" s="49">
-        <v>3161</v>
+        <v>3151</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C262" s="49">
-        <v>3161</v>
+        <v>3151</v>
       </c>
       <c r="D262" s="49" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E262" s="1" t="s">
         <v>246</v>
@@ -24476,50 +24474,50 @@
     </row>
     <row r="263" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="49">
+        <v>3161</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C263" s="49">
+        <v>3161</v>
+      </c>
+      <c r="D263" s="49" t="s">
+        <v>519</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="49">
         <v>3171</v>
       </c>
-      <c r="B263" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C263" s="49">
+      <c r="B264" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C264" s="49">
         <v>3171</v>
       </c>
-      <c r="D263" s="49" t="s">
+      <c r="D264" s="49" t="s">
         <v>520</v>
       </c>
-      <c r="E263" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="43">
+      <c r="E264" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="43">
         <v>3181</v>
       </c>
-      <c r="B264" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C264" s="43">
+      <c r="B265" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C265" s="43">
         <v>3181</v>
       </c>
-      <c r="D264" s="43" t="s">
+      <c r="D265" s="43" t="s">
         <v>612</v>
-      </c>
-      <c r="E264" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="49">
-        <v>3182</v>
-      </c>
-      <c r="B265" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C265" s="49">
-        <v>3182</v>
-      </c>
-      <c r="D265" s="49" t="s">
-        <v>532</v>
       </c>
       <c r="E265" s="1" t="s">
         <v>246</v>
@@ -24527,16 +24525,16 @@
     </row>
     <row r="266" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="49">
-        <v>3191</v>
+        <v>3182</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C266" s="49">
-        <v>3191</v>
+        <v>3182</v>
       </c>
       <c r="D266" s="49" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="E266" s="1" t="s">
         <v>246</v>
@@ -24544,16 +24542,16 @@
     </row>
     <row r="267" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A267" s="49">
-        <v>3201</v>
+        <v>3191</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C267" s="49">
-        <v>3201</v>
+        <v>3191</v>
       </c>
       <c r="D267" s="49" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E267" s="1" t="s">
         <v>246</v>
@@ -24561,16 +24559,16 @@
     </row>
     <row r="268" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" s="49">
-        <v>3221</v>
+        <v>3201</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C268" s="49">
-        <v>3221</v>
+        <v>3201</v>
       </c>
       <c r="D268" s="49" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="E268" s="1" t="s">
         <v>246</v>
@@ -24578,16 +24576,16 @@
     </row>
     <row r="269" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269" s="49">
-        <v>3222</v>
+        <v>3221</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C269" s="49">
-        <v>3222</v>
+        <v>3221</v>
       </c>
       <c r="D269" s="49" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E269" s="1" t="s">
         <v>246</v>
@@ -24595,16 +24593,16 @@
     </row>
     <row r="270" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" s="49">
-        <v>3223</v>
+        <v>3222</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C270" s="49">
-        <v>3223</v>
+        <v>3222</v>
       </c>
       <c r="D270" s="49" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="E270" s="1" t="s">
         <v>246</v>
@@ -24612,16 +24610,16 @@
     </row>
     <row r="271" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A271" s="49">
-        <v>3231</v>
+        <v>3223</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C271" s="49">
-        <v>3231</v>
+        <v>3223</v>
       </c>
       <c r="D271" s="49" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="E271" s="1" t="s">
         <v>246</v>
@@ -24629,16 +24627,16 @@
     </row>
     <row r="272" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272" s="49">
-        <v>3241</v>
+        <v>3231</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C272" s="49">
-        <v>3241</v>
+        <v>3231</v>
       </c>
       <c r="D272" s="49" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="E272" s="1" t="s">
         <v>246</v>
@@ -24646,50 +24644,50 @@
     </row>
     <row r="273" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" s="49">
+        <v>3241</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C273" s="49">
+        <v>3241</v>
+      </c>
+      <c r="D273" s="49" t="s">
+        <v>561</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="49">
         <v>3251</v>
       </c>
-      <c r="B273" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C273" s="49">
+      <c r="B274" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C274" s="49">
         <v>3251</v>
       </c>
-      <c r="D273" s="49" t="s">
+      <c r="D274" s="49" t="s">
         <v>572</v>
       </c>
-      <c r="E273" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="59">
+      <c r="E274" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="59">
         <v>3261</v>
       </c>
-      <c r="B274" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C274" s="59">
+      <c r="B275" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C275" s="59">
         <v>3261</v>
       </c>
-      <c r="D274" s="50" t="s">
+      <c r="D275" s="50" t="s">
         <v>416</v>
-      </c>
-      <c r="E274" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="49">
-        <v>3271</v>
-      </c>
-      <c r="B275" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C275" s="49">
-        <v>3271</v>
-      </c>
-      <c r="D275" s="49" t="s">
-        <v>587</v>
       </c>
       <c r="E275" s="1" t="s">
         <v>246</v>
@@ -24697,33 +24695,33 @@
     </row>
     <row r="276" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="49">
+        <v>3271</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C276" s="49">
+        <v>3271</v>
+      </c>
+      <c r="D276" s="49" t="s">
+        <v>587</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="49">
         <v>3272</v>
       </c>
-      <c r="B276" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C276" s="49">
+      <c r="B277" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C277" s="49">
         <v>3272</v>
       </c>
-      <c r="D276" s="49" t="s">
+      <c r="D277" s="49" t="s">
         <v>588</v>
-      </c>
-      <c r="E276" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="59">
-        <v>3900</v>
-      </c>
-      <c r="B277" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C277" s="59">
-        <v>3900</v>
-      </c>
-      <c r="D277" s="50" t="s">
-        <v>337</v>
       </c>
       <c r="E277" s="1" t="s">
         <v>246</v>
@@ -24731,33 +24729,33 @@
     </row>
     <row r="278" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278" s="59">
+        <v>3900</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C278" s="59">
+        <v>3900</v>
+      </c>
+      <c r="D278" s="50" t="s">
+        <v>337</v>
+      </c>
+      <c r="E278" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="59">
         <v>3935</v>
       </c>
-      <c r="B278" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C278" s="59">
+      <c r="B279" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C279" s="59">
         <v>3935</v>
       </c>
-      <c r="D278" s="50" t="s">
+      <c r="D279" s="50" t="s">
         <v>816</v>
-      </c>
-      <c r="E278" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="49">
-        <v>3960</v>
-      </c>
-      <c r="B279" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C279" s="49">
-        <v>3960</v>
-      </c>
-      <c r="D279" s="49" t="s">
-        <v>322</v>
       </c>
       <c r="E279" s="1" t="s">
         <v>246</v>
@@ -24765,16 +24763,16 @@
     </row>
     <row r="280" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A280" s="49">
-        <v>3961</v>
+        <v>3960</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C280" s="49">
-        <v>3961</v>
+        <v>3960</v>
       </c>
       <c r="D280" s="49" t="s">
-        <v>481</v>
+        <v>322</v>
       </c>
       <c r="E280" s="1" t="s">
         <v>246</v>
@@ -24782,50 +24780,50 @@
     </row>
     <row r="281" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A281" s="49">
+        <v>3961</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C281" s="49">
+        <v>3961</v>
+      </c>
+      <c r="D281" s="49" t="s">
+        <v>481</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="49">
         <v>3962</v>
       </c>
-      <c r="B281" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C281" s="49">
+      <c r="B282" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C282" s="49">
         <v>3962</v>
       </c>
-      <c r="D281" s="49" t="s">
+      <c r="D282" s="49" t="s">
         <v>482</v>
       </c>
-      <c r="E281" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="59">
+      <c r="E282" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="59">
         <v>3970</v>
       </c>
-      <c r="B282" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C282" s="59">
+      <c r="B283" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C283" s="59">
         <v>3970</v>
       </c>
-      <c r="D282" s="50" t="s">
+      <c r="D283" s="50" t="s">
         <v>321</v>
-      </c>
-      <c r="E282" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="49">
-        <v>3971</v>
-      </c>
-      <c r="B283" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C283" s="49">
-        <v>3971</v>
-      </c>
-      <c r="D283" s="49" t="s">
-        <v>470</v>
       </c>
       <c r="E283" s="1" t="s">
         <v>246</v>
@@ -24833,16 +24831,16 @@
     </row>
     <row r="284" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A284" s="49">
-        <v>3972</v>
+        <v>3971</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C284" s="49">
-        <v>3972</v>
+        <v>3971</v>
       </c>
       <c r="D284" s="49" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E284" s="1" t="s">
         <v>246</v>
@@ -24850,50 +24848,50 @@
     </row>
     <row r="285" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A285" s="49">
+        <v>3972</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C285" s="49">
+        <v>3972</v>
+      </c>
+      <c r="D285" s="49" t="s">
+        <v>472</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="49">
         <v>3973</v>
       </c>
-      <c r="B285" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C285" s="49">
+      <c r="B286" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C286" s="49">
         <v>3973</v>
       </c>
-      <c r="D285" s="49" t="s">
+      <c r="D286" s="49" t="s">
         <v>471</v>
       </c>
-      <c r="E285" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="59">
+      <c r="E286" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="59">
         <v>3980</v>
       </c>
-      <c r="B286" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C286" s="59">
+      <c r="B287" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C287" s="59">
         <v>3980</v>
       </c>
-      <c r="D286" s="50" t="s">
+      <c r="D287" s="50" t="s">
         <v>320</v>
-      </c>
-      <c r="E286" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="49">
-        <v>4001</v>
-      </c>
-      <c r="B287" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C287" s="49">
-        <v>4001</v>
-      </c>
-      <c r="D287" s="49" t="s">
-        <v>436</v>
       </c>
       <c r="E287" s="1" t="s">
         <v>246</v>
@@ -24901,16 +24899,16 @@
     </row>
     <row r="288" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A288" s="49">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="B288" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C288" s="49">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="D288" s="49" t="s">
-        <v>503</v>
+        <v>436</v>
       </c>
       <c r="E288" s="1" t="s">
         <v>246</v>
@@ -24918,16 +24916,16 @@
     </row>
     <row r="289" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A289" s="49">
-        <v>4003</v>
+        <v>4002</v>
       </c>
       <c r="B289" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C289" s="49">
-        <v>4003</v>
+        <v>4002</v>
       </c>
       <c r="D289" s="49" t="s">
-        <v>526</v>
+        <v>503</v>
       </c>
       <c r="E289" s="1" t="s">
         <v>246</v>
@@ -24935,16 +24933,16 @@
     </row>
     <row r="290" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A290" s="49">
-        <v>4004</v>
+        <v>4003</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C290" s="49">
-        <v>4004</v>
+        <v>4003</v>
       </c>
       <c r="D290" s="49" t="s">
-        <v>563</v>
+        <v>526</v>
       </c>
       <c r="E290" s="1" t="s">
         <v>246</v>
@@ -24952,16 +24950,16 @@
     </row>
     <row r="291" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A291" s="49">
-        <v>4005</v>
+        <v>4004</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C291" s="49">
-        <v>4005</v>
+        <v>4004</v>
       </c>
       <c r="D291" s="49" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="E291" s="1" t="s">
         <v>246</v>
@@ -24969,16 +24967,16 @@
     </row>
     <row r="292" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A292" s="49">
-        <v>4006</v>
+        <v>4005</v>
       </c>
       <c r="B292" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C292" s="49">
-        <v>4006</v>
+        <v>4005</v>
       </c>
       <c r="D292" s="49" t="s">
-        <v>538</v>
+        <v>570</v>
       </c>
       <c r="E292" s="1" t="s">
         <v>246</v>
@@ -24986,16 +24984,16 @@
     </row>
     <row r="293" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A293" s="49">
-        <v>4007</v>
+        <v>4006</v>
       </c>
       <c r="B293" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C293" s="49">
-        <v>4007</v>
+        <v>4006</v>
       </c>
       <c r="D293" s="49" t="s">
-        <v>554</v>
+        <v>538</v>
       </c>
       <c r="E293" s="1" t="s">
         <v>246</v>
@@ -25003,16 +25001,16 @@
     </row>
     <row r="294" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A294" s="49">
-        <v>4008</v>
+        <v>4007</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C294" s="49">
-        <v>4008</v>
+        <v>4007</v>
       </c>
       <c r="D294" s="49" t="s">
-        <v>585</v>
+        <v>554</v>
       </c>
       <c r="E294" s="1" t="s">
         <v>246</v>
@@ -25020,16 +25018,16 @@
     </row>
     <row r="295" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A295" s="49">
-        <v>4009</v>
+        <v>4008</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C295" s="49">
-        <v>4009</v>
+        <v>4008</v>
       </c>
       <c r="D295" s="49" t="s">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E295" s="1" t="s">
         <v>246</v>
@@ -25037,16 +25035,16 @@
     </row>
     <row r="296" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A296" s="49">
-        <v>4010</v>
+        <v>4009</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C296" s="49">
-        <v>4010</v>
+        <v>4009</v>
       </c>
       <c r="D296" s="49" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="E296" s="1" t="s">
         <v>246</v>
@@ -25054,16 +25052,16 @@
     </row>
     <row r="297" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A297" s="49">
-        <v>4011</v>
+        <v>4010</v>
       </c>
       <c r="B297" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C297" s="49">
-        <v>4011</v>
+        <v>4010</v>
       </c>
       <c r="D297" s="49" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="E297" s="1" t="s">
         <v>246</v>
@@ -25071,16 +25069,16 @@
     </row>
     <row r="298" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A298" s="49">
-        <v>4012</v>
+        <v>4011</v>
       </c>
       <c r="B298" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C298" s="49">
-        <v>4012</v>
+        <v>4011</v>
       </c>
       <c r="D298" s="49" t="s">
-        <v>474</v>
+        <v>523</v>
       </c>
       <c r="E298" s="1" t="s">
         <v>246</v>
@@ -25088,16 +25086,16 @@
     </row>
     <row r="299" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A299" s="49">
-        <v>4013</v>
+        <v>4012</v>
       </c>
       <c r="B299" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C299" s="49">
-        <v>4013</v>
+        <v>4012</v>
       </c>
       <c r="D299" s="49" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E299" s="1" t="s">
         <v>246</v>
@@ -25105,16 +25103,16 @@
     </row>
     <row r="300" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A300" s="49">
-        <v>4014</v>
+        <v>4013</v>
       </c>
       <c r="B300" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C300" s="49">
-        <v>4014</v>
+        <v>4013</v>
       </c>
       <c r="D300" s="49" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="E300" s="1" t="s">
         <v>246</v>
@@ -25122,16 +25120,16 @@
     </row>
     <row r="301" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A301" s="49">
-        <v>4015</v>
+        <v>4014</v>
       </c>
       <c r="B301" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C301" s="49">
-        <v>4015</v>
+        <v>4014</v>
       </c>
       <c r="D301" s="49" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E301" s="1" t="s">
         <v>246</v>
@@ -25139,16 +25137,16 @@
     </row>
     <row r="302" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A302" s="49">
-        <v>4101</v>
+        <v>4015</v>
       </c>
       <c r="B302" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C302" s="49">
-        <v>4101</v>
+        <v>4015</v>
       </c>
       <c r="D302" s="49" t="s">
-        <v>429</v>
+        <v>485</v>
       </c>
       <c r="E302" s="1" t="s">
         <v>246</v>
@@ -25156,16 +25154,16 @@
     </row>
     <row r="303" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A303" s="49">
-        <v>4116</v>
+        <v>4101</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C303" s="49">
-        <v>4116</v>
+        <v>4101</v>
       </c>
       <c r="D303" s="49" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="E303" s="1" t="s">
         <v>246</v>
@@ -25173,16 +25171,16 @@
     </row>
     <row r="304" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A304" s="49">
-        <v>4121</v>
+        <v>4116</v>
       </c>
       <c r="B304" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C304" s="49">
-        <v>4121</v>
+        <v>4116</v>
       </c>
       <c r="D304" s="49" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="E304" s="1" t="s">
         <v>246</v>
@@ -25190,50 +25188,50 @@
     </row>
     <row r="305" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A305" s="49">
+        <v>4121</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C305" s="49">
+        <v>4121</v>
+      </c>
+      <c r="D305" s="49" t="s">
+        <v>444</v>
+      </c>
+      <c r="E305" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A306" s="49">
         <v>4123</v>
       </c>
-      <c r="B305" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C305" s="49">
+      <c r="B306" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C306" s="49">
         <v>4123</v>
       </c>
-      <c r="D305" s="49" t="s">
+      <c r="D306" s="49" t="s">
         <v>460</v>
       </c>
-      <c r="E305" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="47">
+      <c r="E306" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="47">
         <v>4125</v>
       </c>
-      <c r="B306" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C306" s="47">
+      <c r="B307" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C307" s="47">
         <v>4125</v>
       </c>
-      <c r="D306" s="54" t="s">
+      <c r="D307" s="54" t="s">
         <v>303</v>
-      </c>
-      <c r="E306" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="49">
-        <v>4126</v>
-      </c>
-      <c r="B307" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C307" s="49">
-        <v>4126</v>
-      </c>
-      <c r="D307" s="49" t="s">
-        <v>487</v>
       </c>
       <c r="E307" s="1" t="s">
         <v>246</v>
@@ -25241,50 +25239,50 @@
     </row>
     <row r="308" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A308" s="49">
+        <v>4126</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C308" s="49">
+        <v>4126</v>
+      </c>
+      <c r="D308" s="49" t="s">
+        <v>487</v>
+      </c>
+      <c r="E308" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A309" s="49">
         <v>4136</v>
       </c>
-      <c r="B308" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C308" s="49">
+      <c r="B309" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C309" s="49">
         <v>4136</v>
       </c>
-      <c r="D308" s="49" t="s">
+      <c r="D309" s="49" t="s">
         <v>488</v>
       </c>
-      <c r="E308" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A309" s="47">
+      <c r="E309" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A310" s="47">
         <v>4157</v>
       </c>
-      <c r="B309" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C309" s="47">
+      <c r="B310" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C310" s="47">
         <v>4157</v>
       </c>
-      <c r="D309" s="54" t="s">
+      <c r="D310" s="54" t="s">
         <v>309</v>
-      </c>
-      <c r="E309" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="49">
-        <v>4160</v>
-      </c>
-      <c r="B310" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C310" s="49">
-        <v>4160</v>
-      </c>
-      <c r="D310" s="49" t="s">
-        <v>510</v>
       </c>
       <c r="E310" s="1" t="s">
         <v>246</v>
@@ -25292,16 +25290,16 @@
     </row>
     <row r="311" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A311" s="49">
-        <v>4161</v>
+        <v>4160</v>
       </c>
       <c r="B311" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C311" s="49">
-        <v>4161</v>
+        <v>4160</v>
       </c>
       <c r="D311" s="49" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E311" s="1" t="s">
         <v>246</v>
@@ -25309,50 +25307,50 @@
     </row>
     <row r="312" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A312" s="49">
+        <v>4161</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C312" s="49">
+        <v>4161</v>
+      </c>
+      <c r="D312" s="49" t="s">
+        <v>511</v>
+      </c>
+      <c r="E312" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A313" s="49">
         <v>4163</v>
       </c>
-      <c r="B312" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C312" s="49">
+      <c r="B313" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C313" s="49">
         <v>4163</v>
       </c>
-      <c r="D312" s="49" t="s">
+      <c r="D313" s="49" t="s">
         <v>562</v>
       </c>
-      <c r="E312" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A313" s="54">
+      <c r="E313" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A314" s="54">
         <v>4164</v>
       </c>
-      <c r="B313" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C313" s="54">
+      <c r="B314" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C314" s="54">
         <v>4164</v>
       </c>
-      <c r="D313" s="54" t="s">
+      <c r="D314" s="54" t="s">
         <v>525</v>
-      </c>
-      <c r="E313" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A314" s="49">
-        <v>4165</v>
-      </c>
-      <c r="B314" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C314" s="49">
-        <v>4165</v>
-      </c>
-      <c r="D314" s="49" t="s">
-        <v>524</v>
       </c>
       <c r="E314" s="1" t="s">
         <v>246</v>
@@ -25360,16 +25358,16 @@
     </row>
     <row r="315" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A315" s="49">
-        <v>4166</v>
+        <v>4165</v>
       </c>
       <c r="B315" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C315" s="49">
-        <v>4166</v>
+        <v>4165</v>
       </c>
       <c r="D315" s="49" t="s">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="E315" s="1" t="s">
         <v>246</v>
@@ -25377,16 +25375,16 @@
     </row>
     <row r="316" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A316" s="49">
-        <v>4174</v>
+        <v>4166</v>
       </c>
       <c r="B316" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C316" s="49">
-        <v>4174</v>
+        <v>4166</v>
       </c>
       <c r="D316" s="49" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="E316" s="1" t="s">
         <v>246</v>
@@ -25394,16 +25392,16 @@
     </row>
     <row r="317" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A317" s="49">
-        <v>4177</v>
+        <v>4174</v>
       </c>
       <c r="B317" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C317" s="49">
-        <v>4177</v>
+        <v>4174</v>
       </c>
       <c r="D317" s="49" t="s">
-        <v>566</v>
+        <v>551</v>
       </c>
       <c r="E317" s="1" t="s">
         <v>246</v>
@@ -25411,16 +25409,16 @@
     </row>
     <row r="318" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A318" s="49">
-        <v>4191</v>
+        <v>4177</v>
       </c>
       <c r="B318" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C318" s="49">
-        <v>4191</v>
+        <v>4177</v>
       </c>
       <c r="D318" s="49" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E318" s="1" t="s">
         <v>246</v>
@@ -25428,16 +25426,16 @@
     </row>
     <row r="319" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A319" s="49">
-        <v>4196</v>
+        <v>4191</v>
       </c>
       <c r="B319" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C319" s="49">
-        <v>4196</v>
+        <v>4191</v>
       </c>
       <c r="D319" s="49" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E319" s="1" t="s">
         <v>246</v>
@@ -25445,16 +25443,16 @@
     </row>
     <row r="320" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A320" s="49">
-        <v>4211</v>
+        <v>4196</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C320" s="49">
-        <v>4211</v>
+        <v>4196</v>
       </c>
       <c r="D320" s="49" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="E320" s="1" t="s">
         <v>246</v>
@@ -25462,16 +25460,16 @@
     </row>
     <row r="321" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A321" s="49">
-        <v>4216</v>
+        <v>4211</v>
       </c>
       <c r="B321" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C321" s="49">
-        <v>4216</v>
+        <v>4211</v>
       </c>
       <c r="D321" s="49" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E321" s="1" t="s">
         <v>246</v>
@@ -25479,16 +25477,16 @@
     </row>
     <row r="322" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A322" s="49">
-        <v>4221</v>
+        <v>4216</v>
       </c>
       <c r="B322" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C322" s="49">
-        <v>4221</v>
+        <v>4216</v>
       </c>
       <c r="D322" s="49" t="s">
-        <v>490</v>
+        <v>574</v>
       </c>
       <c r="E322" s="1" t="s">
         <v>246</v>
@@ -25496,16 +25494,16 @@
     </row>
     <row r="323" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A323" s="49">
-        <v>4225</v>
+        <v>4221</v>
       </c>
       <c r="B323" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C323" s="49">
-        <v>4225</v>
+        <v>4221</v>
       </c>
       <c r="D323" s="49" t="s">
-        <v>553</v>
+        <v>490</v>
       </c>
       <c r="E323" s="1" t="s">
         <v>246</v>
@@ -25513,16 +25511,16 @@
     </row>
     <row r="324" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A324" s="49">
-        <v>4226</v>
+        <v>4225</v>
       </c>
       <c r="B324" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C324" s="49">
-        <v>4226</v>
+        <v>4225</v>
       </c>
       <c r="D324" s="49" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E324" s="1" t="s">
         <v>246</v>
@@ -25530,16 +25528,16 @@
     </row>
     <row r="325" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A325" s="49">
-        <v>4235</v>
+        <v>4226</v>
       </c>
       <c r="B325" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C325" s="49">
-        <v>4235</v>
+        <v>4226</v>
       </c>
       <c r="D325" s="49" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="E325" s="1" t="s">
         <v>246</v>
@@ -25547,16 +25545,16 @@
     </row>
     <row r="326" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A326" s="49">
-        <v>4531</v>
+        <v>4235</v>
       </c>
       <c r="B326" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C326" s="49">
-        <v>4531</v>
+        <v>4235</v>
       </c>
       <c r="D326" s="49" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="E326" s="1" t="s">
         <v>246</v>
@@ -25564,16 +25562,16 @@
     </row>
     <row r="327" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A327" s="49">
-        <v>4535</v>
+        <v>4531</v>
       </c>
       <c r="B327" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C327" s="49">
-        <v>4535</v>
+        <v>4531</v>
       </c>
       <c r="D327" s="49" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E327" s="1" t="s">
         <v>246</v>
@@ -25581,16 +25579,16 @@
     </row>
     <row r="328" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A328" s="49">
-        <v>6205</v>
+        <v>4535</v>
       </c>
       <c r="B328" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C328" s="49">
-        <v>6205</v>
+        <v>4535</v>
       </c>
       <c r="D328" s="49" t="s">
-        <v>491</v>
+        <v>559</v>
       </c>
       <c r="E328" s="1" t="s">
         <v>246</v>
@@ -25598,101 +25596,101 @@
     </row>
     <row r="329" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A329" s="49">
+        <v>6205</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C329" s="49">
+        <v>6205</v>
+      </c>
+      <c r="D329" s="49" t="s">
+        <v>491</v>
+      </c>
+      <c r="E329" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A330" s="49">
         <v>6206</v>
       </c>
-      <c r="B329" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C329" s="49">
+      <c r="B330" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C330" s="49">
         <v>6206</v>
       </c>
-      <c r="D329" s="49" t="s">
+      <c r="D330" s="49" t="s">
         <v>492</v>
       </c>
-      <c r="E329" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A330" s="54">
+      <c r="E330" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A331" s="54">
         <v>6241</v>
       </c>
-      <c r="B330" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C330" s="54">
+      <c r="B331" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C331" s="54">
         <v>6241</v>
       </c>
-      <c r="D330" s="49" t="s">
+      <c r="D331" s="49" t="s">
         <v>593</v>
       </c>
-      <c r="E330" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A331" s="49">
+      <c r="E331" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A332" s="49">
         <v>6425</v>
       </c>
-      <c r="B331" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C331" s="49">
+      <c r="B332" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C332" s="49">
         <v>6425</v>
       </c>
-      <c r="D331" s="49" t="s">
+      <c r="D332" s="49" t="s">
         <v>557</v>
       </c>
-      <c r="E331" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A332" s="54">
+      <c r="E332" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A333" s="54">
         <v>6432</v>
       </c>
-      <c r="B332" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C332" s="54">
+      <c r="B333" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C333" s="54">
         <v>6432</v>
       </c>
-      <c r="D332" s="54" t="s">
+      <c r="D333" s="54" t="s">
         <v>548</v>
       </c>
-      <c r="E332" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A333" s="47">
+      <c r="E333" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A334" s="47">
         <v>6551</v>
       </c>
-      <c r="B333" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C333" s="47">
+      <c r="B334" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C334" s="47">
         <v>6551</v>
       </c>
-      <c r="D333" s="54" t="s">
+      <c r="D334" s="54" t="s">
         <v>311</v>
-      </c>
-      <c r="E333" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A334" s="49">
-        <v>6577</v>
-      </c>
-      <c r="B334" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C334" s="49">
-        <v>6577</v>
-      </c>
-      <c r="D334" s="49" t="s">
-        <v>542</v>
       </c>
       <c r="E334" s="1" t="s">
         <v>246</v>
@@ -25700,16 +25698,16 @@
     </row>
     <row r="335" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A335" s="49">
-        <v>6582</v>
+        <v>6577</v>
       </c>
       <c r="B335" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C335" s="49">
-        <v>6582</v>
+        <v>6577</v>
       </c>
       <c r="D335" s="49" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="E335" s="1" t="s">
         <v>246</v>
@@ -25717,16 +25715,16 @@
     </row>
     <row r="336" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A336" s="49">
-        <v>7162</v>
+        <v>6582</v>
       </c>
       <c r="B336" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C336" s="49">
-        <v>7162</v>
+        <v>6582</v>
       </c>
       <c r="D336" s="49" t="s">
-        <v>479</v>
+        <v>545</v>
       </c>
       <c r="E336" s="1" t="s">
         <v>246</v>
@@ -25734,16 +25732,16 @@
     </row>
     <row r="337" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A337" s="49">
-        <v>7290</v>
+        <v>7162</v>
       </c>
       <c r="B337" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C337" s="49">
-        <v>7290</v>
+        <v>7162</v>
       </c>
       <c r="D337" s="49" t="s">
-        <v>500</v>
+        <v>479</v>
       </c>
       <c r="E337" s="1" t="s">
         <v>246</v>
@@ -25751,50 +25749,50 @@
     </row>
     <row r="338" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A338" s="49">
+        <v>7290</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C338" s="49">
+        <v>7290</v>
+      </c>
+      <c r="D338" s="49" t="s">
+        <v>500</v>
+      </c>
+      <c r="E338" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A339" s="49">
         <v>7313</v>
       </c>
-      <c r="B338" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C338" s="49">
+      <c r="B339" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C339" s="49">
         <v>7313</v>
       </c>
-      <c r="D338" s="49" t="s">
+      <c r="D339" s="49" t="s">
         <v>506</v>
       </c>
-      <c r="E338" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A339" s="54">
+      <c r="E339" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A340" s="54">
         <v>7373</v>
       </c>
-      <c r="B339" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C339" s="54">
+      <c r="B340" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C340" s="54">
         <v>7373</v>
       </c>
-      <c r="D339" s="54" t="s">
+      <c r="D340" s="54" t="s">
         <v>310</v>
-      </c>
-      <c r="E339" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A340" s="49">
-        <v>7430</v>
-      </c>
-      <c r="B340" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C340" s="49">
-        <v>7430</v>
-      </c>
-      <c r="D340" s="49" t="s">
-        <v>522</v>
       </c>
       <c r="E340" s="1" t="s">
         <v>246</v>
@@ -25802,33 +25800,33 @@
     </row>
     <row r="341" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A341" s="49">
+        <v>7430</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C341" s="49">
+        <v>7430</v>
+      </c>
+      <c r="D341" s="49" t="s">
+        <v>522</v>
+      </c>
+      <c r="E341" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A342" s="49">
         <v>7616</v>
       </c>
-      <c r="B341" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C341" s="49">
+      <c r="B342" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C342" s="49">
         <v>7616</v>
       </c>
-      <c r="D341" s="49" t="s">
+      <c r="D342" s="49" t="s">
         <v>550</v>
-      </c>
-      <c r="E341" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A342" s="54">
-        <v>7621</v>
-      </c>
-      <c r="B342" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C342" s="54">
-        <v>7621</v>
-      </c>
-      <c r="D342" s="54" t="s">
-        <v>703</v>
       </c>
       <c r="E342" s="1" t="s">
         <v>246</v>
@@ -25836,67 +25834,67 @@
     </row>
     <row r="343" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A343" s="54">
+        <v>7621</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C343" s="54">
+        <v>7621</v>
+      </c>
+      <c r="D343" s="54" t="s">
+        <v>703</v>
+      </c>
+      <c r="E343" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A344" s="54">
         <v>7680</v>
       </c>
-      <c r="B343" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C343" s="54">
+      <c r="B344" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C344" s="54">
         <v>7680</v>
       </c>
-      <c r="D343" s="83" t="s">
+      <c r="D344" s="83" t="s">
         <v>876</v>
       </c>
-      <c r="E343" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A344" s="49">
+      <c r="E344" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A345" s="49">
         <v>7780</v>
       </c>
-      <c r="B344" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C344" s="49">
+      <c r="B345" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C345" s="49">
         <v>7780</v>
       </c>
-      <c r="D344" s="49" t="s">
+      <c r="D345" s="49" t="s">
         <v>521</v>
       </c>
-      <c r="E344" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="345" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A345" s="59">
+      <c r="E345" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A346" s="59">
         <v>8000</v>
       </c>
-      <c r="B345" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C345" s="59">
+      <c r="B346" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C346" s="59">
         <v>8000</v>
       </c>
-      <c r="D345" s="50" t="s">
+      <c r="D346" s="50" t="s">
         <v>418</v>
-      </c>
-      <c r="E345" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A346" s="49">
-        <v>8017</v>
-      </c>
-      <c r="B346" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C346" s="49">
-        <v>8017</v>
-      </c>
-      <c r="D346" s="49" t="s">
-        <v>539</v>
       </c>
       <c r="E346" s="1" t="s">
         <v>246</v>
@@ -25904,16 +25902,16 @@
     </row>
     <row r="347" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A347" s="49">
-        <v>8023</v>
+        <v>8017</v>
       </c>
       <c r="B347" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C347" s="49">
-        <v>8023</v>
+        <v>8017</v>
       </c>
       <c r="D347" s="49" t="s">
-        <v>497</v>
+        <v>539</v>
       </c>
       <c r="E347" s="1" t="s">
         <v>246</v>
@@ -25921,16 +25919,16 @@
     </row>
     <row r="348" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A348" s="49">
-        <v>8027</v>
+        <v>8023</v>
       </c>
       <c r="B348" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C348" s="49">
-        <v>8027</v>
+        <v>8023</v>
       </c>
       <c r="D348" s="49" t="s">
-        <v>445</v>
+        <v>497</v>
       </c>
       <c r="E348" s="1" t="s">
         <v>246</v>
@@ -25938,16 +25936,16 @@
     </row>
     <row r="349" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A349" s="49">
-        <v>8028</v>
+        <v>8027</v>
       </c>
       <c r="B349" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C349" s="49">
-        <v>8028</v>
+        <v>8027</v>
       </c>
       <c r="D349" s="49" t="s">
-        <v>589</v>
+        <v>445</v>
       </c>
       <c r="E349" s="1" t="s">
         <v>246</v>
@@ -25955,16 +25953,16 @@
     </row>
     <row r="350" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A350" s="49">
-        <v>8029</v>
+        <v>8028</v>
       </c>
       <c r="B350" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C350" s="49">
-        <v>8029</v>
+        <v>8028</v>
       </c>
       <c r="D350" s="49" t="s">
-        <v>547</v>
+        <v>589</v>
       </c>
       <c r="E350" s="1" t="s">
         <v>246</v>
@@ -25972,16 +25970,16 @@
     </row>
     <row r="351" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A351" s="49">
-        <v>8061</v>
+        <v>8029</v>
       </c>
       <c r="B351" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C351" s="49">
-        <v>8061</v>
+        <v>8029</v>
       </c>
       <c r="D351" s="49" t="s">
-        <v>478</v>
+        <v>547</v>
       </c>
       <c r="E351" s="1" t="s">
         <v>246</v>
@@ -25989,16 +25987,16 @@
     </row>
     <row r="352" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A352" s="49">
-        <v>8136</v>
+        <v>8061</v>
       </c>
       <c r="B352" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C352" s="49">
-        <v>8136</v>
+        <v>8061</v>
       </c>
       <c r="D352" s="49" t="s">
-        <v>507</v>
+        <v>478</v>
       </c>
       <c r="E352" s="1" t="s">
         <v>246</v>
@@ -26006,16 +26004,16 @@
     </row>
     <row r="353" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A353" s="49">
-        <v>9018</v>
+        <v>8136</v>
       </c>
       <c r="B353" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C353" s="49">
-        <v>9018</v>
+        <v>8136</v>
       </c>
       <c r="D353" s="49" t="s">
-        <v>530</v>
+        <v>507</v>
       </c>
       <c r="E353" s="1" t="s">
         <v>246</v>
@@ -26023,84 +26021,84 @@
     </row>
     <row r="354" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A354" s="49">
+        <v>9018</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C354" s="49">
+        <v>9018</v>
+      </c>
+      <c r="D354" s="49" t="s">
+        <v>530</v>
+      </c>
+      <c r="E354" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A355" s="49">
         <v>9019</v>
       </c>
-      <c r="B354" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C354" s="49">
+      <c r="B355" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C355" s="49">
         <v>9019</v>
       </c>
-      <c r="D354" s="49" t="s">
+      <c r="D355" s="49" t="s">
         <v>434</v>
       </c>
-      <c r="E354" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A355" s="47">
+      <c r="E355" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A356" s="47">
         <v>9180</v>
       </c>
-      <c r="B355" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C355" s="47">
+      <c r="B356" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C356" s="47">
         <v>9180</v>
       </c>
-      <c r="D355" s="54" t="s">
+      <c r="D356" s="54" t="s">
         <v>304</v>
       </c>
-      <c r="E355" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A356" s="49">
+      <c r="E356" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A357" s="49">
         <v>9218</v>
       </c>
-      <c r="B356" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C356" s="49">
+      <c r="B357" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C357" s="49">
         <v>9218</v>
       </c>
-      <c r="D356" s="49" t="s">
+      <c r="D357" s="49" t="s">
         <v>515</v>
       </c>
-      <c r="E356" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A357" s="54">
+      <c r="E357" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A358" s="54">
         <v>9261</v>
       </c>
-      <c r="B357" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C357" s="54">
+      <c r="B358" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C358" s="54">
         <v>9261</v>
       </c>
-      <c r="D357" s="54" t="s">
+      <c r="D358" s="54" t="s">
         <v>537</v>
-      </c>
-      <c r="E357" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A358" s="47">
-        <v>9372</v>
-      </c>
-      <c r="B358" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C358" s="47">
-        <v>9372</v>
-      </c>
-      <c r="D358" s="54" t="s">
-        <v>302</v>
       </c>
       <c r="E358" s="1" t="s">
         <v>246</v>
@@ -26108,796 +26106,805 @@
     </row>
     <row r="359" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A359" s="47">
+        <v>9372</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C359" s="47">
+        <v>9372</v>
+      </c>
+      <c r="D359" s="54" t="s">
+        <v>302</v>
+      </c>
+      <c r="E359" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A360" s="47">
         <v>9373</v>
       </c>
-      <c r="B359" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C359" s="47">
+      <c r="B360" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C360" s="47">
         <v>9373</v>
       </c>
-      <c r="D359" s="54" t="s">
+      <c r="D360" s="54" t="s">
         <v>307</v>
       </c>
-      <c r="E359" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A360" s="48">
+      <c r="E360" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A361" s="48">
         <v>9666</v>
       </c>
-      <c r="B360" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C360" s="48">
+      <c r="B361" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C361" s="48">
         <v>9666</v>
       </c>
-      <c r="D360" s="54" t="s">
+      <c r="D361" s="54" t="s">
         <v>305</v>
       </c>
-      <c r="E360" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A361" s="60">
+      <c r="E361" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A362" s="60">
         <v>9900</v>
       </c>
-      <c r="B361" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C361" s="60">
+      <c r="B362" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C362" s="60">
         <v>9900</v>
       </c>
-      <c r="D361" s="51" t="s">
+      <c r="D362" s="51" t="s">
         <v>692</v>
       </c>
-      <c r="E361" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A362" s="61">
+      <c r="E362" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A363" s="61">
         <v>9970</v>
       </c>
-      <c r="B362" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C362" s="61">
+      <c r="B363" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C363" s="61">
         <v>9970</v>
       </c>
-      <c r="D362" s="50" t="s">
+      <c r="D363" s="50" t="s">
         <v>419</v>
       </c>
-      <c r="E362" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A363" s="61">
+      <c r="E363" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A364" s="61">
         <v>9980</v>
       </c>
-      <c r="B363" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C363" s="61">
+      <c r="B364" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C364" s="61">
         <v>9980</v>
       </c>
-      <c r="D363" s="50" t="s">
+      <c r="D364" s="50" t="s">
         <v>779</v>
       </c>
-      <c r="E363" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A364" s="61">
+      <c r="E364" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A365" s="61">
         <v>9981</v>
       </c>
-      <c r="B364" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C364" s="61">
+      <c r="B365" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C365" s="61">
         <v>9981</v>
       </c>
-      <c r="D364" s="50" t="s">
+      <c r="D365" s="50" t="s">
         <v>780</v>
       </c>
-      <c r="E364" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A365" s="59">
+      <c r="E365" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A366" s="59">
         <v>9990</v>
       </c>
-      <c r="B365" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C365" s="59">
+      <c r="B366" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C366" s="59">
         <v>9990</v>
       </c>
-      <c r="D365" s="50" t="s">
+      <c r="D366" s="50" t="s">
         <v>270</v>
       </c>
-      <c r="E365" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A366" s="59">
+      <c r="E366" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A367" s="59">
         <v>9992</v>
       </c>
-      <c r="B366" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C366" s="59">
+      <c r="B367" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C367" s="59">
         <v>9992</v>
       </c>
-      <c r="D366" s="50" t="s">
+      <c r="D367" s="50" t="s">
         <v>421</v>
       </c>
-      <c r="E366" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A367" s="59">
+      <c r="E367" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A368" s="59">
         <v>9993</v>
       </c>
-      <c r="B367" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C367" s="59">
+      <c r="B368" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C368" s="59">
         <v>9993</v>
       </c>
-      <c r="D367" s="50" t="s">
+      <c r="D368" s="50" t="s">
         <v>422</v>
       </c>
-      <c r="E367" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A368" s="49">
+      <c r="E368" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A369" s="49">
         <v>30001</v>
       </c>
-      <c r="B368" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C368" s="49">
+      <c r="B369" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C369" s="49">
         <v>50001</v>
       </c>
-      <c r="D368" s="49" t="s">
+      <c r="D369" s="49" t="s">
         <v>437</v>
       </c>
-      <c r="E368" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A369" s="49">
+      <c r="E369" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A370" s="49">
         <v>30002</v>
       </c>
-      <c r="B369" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C369" s="49">
+      <c r="B370" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C370" s="49">
         <v>50002</v>
       </c>
-      <c r="D369" s="49" t="s">
+      <c r="D370" s="49" t="s">
         <v>459</v>
       </c>
-      <c r="E369" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A370" s="49">
+      <c r="E370" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A371" s="49">
         <v>30003</v>
       </c>
-      <c r="B370" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C370" s="49">
+      <c r="B371" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C371" s="49">
         <v>50003</v>
       </c>
-      <c r="D370" s="49" t="s">
+      <c r="D371" s="49" t="s">
         <v>461</v>
       </c>
-      <c r="E370" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A371" s="49">
+      <c r="E371" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A372" s="49">
         <v>30004</v>
       </c>
-      <c r="B371" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C371" s="49">
+      <c r="B372" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C372" s="49">
         <v>50004</v>
       </c>
-      <c r="D371" s="49" t="s">
+      <c r="D372" s="49" t="s">
         <v>475</v>
       </c>
-      <c r="E371" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A372" s="49">
+      <c r="E372" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A373" s="49">
         <v>30005</v>
       </c>
-      <c r="B372" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C372" s="49">
+      <c r="B373" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C373" s="49">
         <v>50005</v>
       </c>
-      <c r="D372" s="49" t="s">
+      <c r="D373" s="49" t="s">
         <v>476</v>
       </c>
-      <c r="E372" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A373" s="49">
+      <c r="E373" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A374" s="49">
         <v>30006</v>
       </c>
-      <c r="B373" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C373" s="49">
+      <c r="B374" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C374" s="49">
         <v>50006</v>
       </c>
-      <c r="D373" s="49" t="s">
+      <c r="D374" s="49" t="s">
         <v>489</v>
       </c>
-      <c r="E373" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A374" s="49">
+      <c r="E374" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A375" s="49">
         <v>30007</v>
       </c>
-      <c r="B374" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C374" s="49">
+      <c r="B375" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C375" s="49">
         <v>50007</v>
       </c>
-      <c r="D374" s="49" t="s">
+      <c r="D375" s="49" t="s">
         <v>493</v>
       </c>
-      <c r="E374" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A375" s="49">
+      <c r="E375" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A376" s="49">
         <v>30008</v>
       </c>
-      <c r="B375" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C375" s="49">
+      <c r="B376" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C376" s="49">
         <v>50008</v>
       </c>
-      <c r="D375" s="49" t="s">
+      <c r="D376" s="49" t="s">
         <v>494</v>
       </c>
-      <c r="E375" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A376" s="49">
+      <c r="E376" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A377" s="49">
         <v>30009</v>
       </c>
-      <c r="B376" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C376" s="49">
+      <c r="B377" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C377" s="49">
         <v>50009</v>
       </c>
-      <c r="D376" s="49" t="s">
+      <c r="D377" s="49" t="s">
         <v>505</v>
       </c>
-      <c r="E376" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A377" s="49">
+      <c r="E377" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A378" s="49">
         <v>30010</v>
       </c>
-      <c r="B377" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C377" s="49">
+      <c r="B378" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C378" s="49">
         <v>50010</v>
       </c>
-      <c r="D377" s="49" t="s">
+      <c r="D378" s="49" t="s">
         <v>512</v>
       </c>
-      <c r="E377" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A378" s="49">
+      <c r="E378" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A379" s="49">
         <v>30011</v>
       </c>
-      <c r="B378" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C378" s="49">
+      <c r="B379" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C379" s="49">
         <v>50011</v>
       </c>
-      <c r="D378" s="49" t="s">
+      <c r="D379" s="49" t="s">
         <v>513</v>
       </c>
-      <c r="E378" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A379" s="49">
+      <c r="E379" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A380" s="49">
         <v>30012</v>
       </c>
-      <c r="B379" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C379" s="49">
+      <c r="B380" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C380" s="49">
         <v>50012</v>
       </c>
-      <c r="D379" s="49" t="s">
+      <c r="D380" s="49" t="s">
         <v>528</v>
       </c>
-      <c r="E379" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A380" s="49">
+      <c r="E380" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A381" s="49">
         <v>30013</v>
       </c>
-      <c r="B380" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C380" s="49">
+      <c r="B381" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C381" s="49">
         <v>50013</v>
       </c>
-      <c r="D380" s="49" t="s">
+      <c r="D381" s="49" t="s">
         <v>533</v>
       </c>
-      <c r="E380" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A381" s="49">
+      <c r="E381" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A382" s="49">
         <v>30014</v>
       </c>
-      <c r="B381" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C381" s="49">
+      <c r="B382" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C382" s="49">
         <v>50014</v>
       </c>
-      <c r="D381" s="49" t="s">
+      <c r="D382" s="49" t="s">
         <v>534</v>
       </c>
-      <c r="E381" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A382" s="49">
+      <c r="E382" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A383" s="49">
         <v>30015</v>
       </c>
-      <c r="B382" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C382" s="49">
+      <c r="B383" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C383" s="49">
         <v>50015</v>
       </c>
-      <c r="D382" s="49" t="s">
+      <c r="D383" s="49" t="s">
         <v>571</v>
       </c>
-      <c r="E382" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A383" s="49">
+      <c r="E383" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A384" s="49">
         <v>30016</v>
       </c>
-      <c r="B383" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C383" s="49">
+      <c r="B384" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C384" s="49">
         <v>50016</v>
       </c>
-      <c r="D383" s="49" t="s">
+      <c r="D384" s="49" t="s">
         <v>586</v>
       </c>
-      <c r="E383" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A384" s="49">
+      <c r="E384" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A385" s="49">
         <v>30017</v>
       </c>
-      <c r="B384" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C384" s="49">
+      <c r="B385" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C385" s="49">
         <v>50017</v>
       </c>
-      <c r="D384" s="49" t="s">
+      <c r="D385" s="49" t="s">
         <v>590</v>
       </c>
-      <c r="E384" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A385" s="49">
+      <c r="E385" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A386" s="49">
         <v>30018</v>
       </c>
-      <c r="B385" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C385" s="49">
+      <c r="B386" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C386" s="49">
         <v>50018</v>
       </c>
-      <c r="D385" s="49" t="s">
+      <c r="D386" s="49" t="s">
         <v>418</v>
       </c>
-      <c r="E385" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A386" s="49">
+      <c r="E386" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A387" s="49">
         <v>30019</v>
       </c>
-      <c r="B386" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C386" s="49">
+      <c r="B387" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C387" s="49">
         <v>50019</v>
       </c>
-      <c r="D386" s="49" t="s">
+      <c r="D387" s="49" t="s">
         <v>531</v>
       </c>
-      <c r="E386" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A387" s="49">
+      <c r="E387" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A388" s="49">
         <v>30020</v>
       </c>
-      <c r="B387" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C387" s="49">
+      <c r="B388" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C388" s="49">
         <v>50020</v>
       </c>
-      <c r="D387" s="49" t="s">
+      <c r="D388" s="49" t="s">
         <v>473</v>
       </c>
-      <c r="E387" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A388" s="49">
+      <c r="E388" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A389" s="49">
         <v>30021</v>
       </c>
-      <c r="B388" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C388" s="49">
+      <c r="B389" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C389" s="49">
         <v>50021</v>
       </c>
-      <c r="D388" s="49" t="s">
+      <c r="D389" s="49" t="s">
         <v>529</v>
       </c>
-      <c r="E388" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A389" s="49">
+      <c r="E389" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A390" s="49">
         <v>30022</v>
       </c>
-      <c r="B389" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C389" s="49">
+      <c r="B390" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C390" s="49">
         <v>50022</v>
       </c>
-      <c r="D389" s="49" t="s">
+      <c r="D390" s="49" t="s">
         <v>454</v>
       </c>
-      <c r="E389" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A390" s="49">
+      <c r="E390" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A391" s="49">
         <v>30023</v>
       </c>
-      <c r="B390" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C390" s="49">
+      <c r="B391" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C391" s="49">
         <v>50023</v>
       </c>
-      <c r="D390" s="49" t="s">
+      <c r="D391" s="49" t="s">
         <v>453</v>
       </c>
-      <c r="E390" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A391" s="49">
+      <c r="E391" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A392" s="49">
         <v>30024</v>
       </c>
-      <c r="B391" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C391" s="49">
+      <c r="B392" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C392" s="49">
         <v>50024</v>
       </c>
-      <c r="D391" s="49" t="s">
+      <c r="D392" s="49" t="s">
         <v>448</v>
       </c>
-      <c r="E391" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A392" s="49">
+      <c r="E392" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A393" s="49">
         <v>30025</v>
       </c>
-      <c r="B392" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C392" s="49">
+      <c r="B393" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C393" s="49">
         <v>50025</v>
       </c>
-      <c r="D392" s="54" t="s">
+      <c r="D393" s="54" t="s">
         <v>499</v>
       </c>
-      <c r="E392" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A393" s="49">
+      <c r="E393" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A394" s="49">
         <v>30026</v>
       </c>
-      <c r="B393" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C393" s="49">
+      <c r="B394" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C394" s="49">
         <v>50026</v>
       </c>
-      <c r="D393" s="54" t="s">
+      <c r="D394" s="54" t="s">
         <v>527</v>
       </c>
-      <c r="E393" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B394" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C394" s="47">
-        <v>1900</v>
-      </c>
-      <c r="D394" s="54" t="s">
-        <v>339</v>
-      </c>
       <c r="E394" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A395" s="54"/>
       <c r="B395" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C395" s="48">
-        <v>1901</v>
+      <c r="C395" s="47">
+        <v>1900</v>
       </c>
       <c r="D395" s="54" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="E395" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A396" s="54"/>
       <c r="B396" s="1" t="s">
         <v>228</v>
       </c>
       <c r="C396" s="48">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="D396" s="54" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E396" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A397" s="54"/>
       <c r="B397" s="1" t="s">
         <v>228</v>
       </c>
       <c r="C397" s="48">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="D397" s="54" t="s">
-        <v>718</v>
+        <v>326</v>
       </c>
       <c r="E397" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A398" s="54"/>
       <c r="B398" s="1" t="s">
         <v>228</v>
       </c>
       <c r="C398" s="48">
-        <v>1910</v>
+        <v>1903</v>
       </c>
       <c r="D398" s="54" t="s">
-        <v>341</v>
+        <v>718</v>
       </c>
       <c r="E398" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A399" s="54"/>
       <c r="B399" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C399" s="47">
-        <v>1991</v>
+      <c r="C399" s="48">
+        <v>1910</v>
       </c>
       <c r="D399" s="54" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E399" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A400" s="54"/>
       <c r="B400" s="1" t="s">
         <v>228</v>
       </c>
       <c r="C400" s="47">
-        <v>2000</v>
+        <v>1991</v>
       </c>
       <c r="D400" s="54" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E400" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="401" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B401" s="1" t="s">
         <v>228</v>
       </c>
       <c r="C401" s="47">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="D401" s="54" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="E401" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="402" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B402" s="1" t="s">
         <v>228</v>
       </c>
       <c r="C402" s="47">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="D402" s="54" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="E402" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="403" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B403" s="1" t="s">
         <v>228</v>
       </c>
       <c r="C403" s="47">
-        <v>2250</v>
+        <v>2200</v>
       </c>
       <c r="D403" s="54" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E403" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="404" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B404" s="1" t="s">
         <v>228</v>
       </c>
       <c r="C404" s="47">
-        <v>2990</v>
+        <v>2250</v>
       </c>
       <c r="D404" s="54" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="E404" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="405" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B405" s="1" t="s">
         <v>228</v>
       </c>
       <c r="C405" s="47">
-        <v>3060</v>
+        <v>2990</v>
       </c>
       <c r="D405" s="54" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E405" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="406" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B406" s="1" t="s">
         <v>228</v>
       </c>
       <c r="C406" s="47">
-        <v>3900</v>
+        <v>3060</v>
       </c>
       <c r="D406" s="54" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E406" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="407" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B407" s="1" t="s">
         <v>228</v>
       </c>
       <c r="C407" s="47">
-        <v>3935</v>
+        <v>3900</v>
       </c>
       <c r="D407" s="54" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E407" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="408" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B408" s="1" t="s">
         <v>228</v>
       </c>
@@ -26905,90 +26912,104 @@
         <v>3935</v>
       </c>
       <c r="D408" s="54" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="E408" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="409" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B409" s="1" t="s">
         <v>228</v>
       </c>
       <c r="C409" s="47">
-        <v>3960</v>
+        <v>3936</v>
       </c>
       <c r="D409" s="54" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E409" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="410" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B410" s="1" t="s">
         <v>228</v>
       </c>
       <c r="C410" s="47">
-        <v>3970</v>
+        <v>3960</v>
       </c>
       <c r="D410" s="54" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E410" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="411" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B411" s="1" t="s">
         <v>228</v>
       </c>
       <c r="C411" s="47">
-        <v>3980</v>
+        <v>3970</v>
       </c>
       <c r="D411" s="54" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E411" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="412" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B412" s="1" t="s">
         <v>228</v>
       </c>
       <c r="C412" s="47">
-        <v>9990</v>
+        <v>3980</v>
       </c>
       <c r="D412" s="54" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E412" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="413" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B413" s="1" t="s">
         <v>228</v>
       </c>
       <c r="C413" s="47">
+        <v>9990</v>
+      </c>
+      <c r="D413" s="54" t="s">
+        <v>319</v>
+      </c>
+      <c r="E413" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="414" spans="2:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B414" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C414" s="47">
         <v>9999</v>
       </c>
-      <c r="D413" s="54" t="s">
+      <c r="D414" s="54" t="s">
         <v>871</v>
       </c>
-      <c r="E413" s="1" t="s">
+      <c r="E414" s="1" t="s">
         <v>246</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A144:E393">
-    <sortCondition ref="A143:A393"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A145:E394">
+    <sortCondition ref="A144:A394"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="D119:D129" numberStoredAsText="1"/>
+    <ignoredError sqref="D120:D130" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
